--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_17_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_17_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4343580.236492971</v>
+        <v>-4344245.01757439</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.14266318391412</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="I11" t="n">
-        <v>40.19908950562709</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.89230219312423</v>
+        <v>26.89230219312421</v>
       </c>
       <c r="T11" t="n">
         <v>22.05838072575475</v>
       </c>
       <c r="U11" t="n">
-        <v>49.79374050860088</v>
+        <v>49.79374050860086</v>
       </c>
       <c r="V11" t="n">
-        <v>98.93990648501779</v>
+        <v>87.34175268954144</v>
       </c>
       <c r="W11" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>54.34620536807763</v>
       </c>
       <c r="T12" t="n">
-        <v>98.93990648501779</v>
+        <v>14.58962378130649</v>
       </c>
       <c r="U12" t="n">
-        <v>98.93990648501779</v>
+        <v>36.8717970345844</v>
       </c>
       <c r="V12" t="n">
-        <v>79.75196352235912</v>
+        <v>40.29306373012037</v>
       </c>
       <c r="W12" t="n">
-        <v>66.34872639172974</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="X12" t="n">
-        <v>16.95705725418875</v>
+        <v>16.95705725418873</v>
       </c>
       <c r="Y12" t="n">
-        <v>23.02842894874377</v>
+        <v>23.02842894874374</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.83615885979126</v>
+        <v>2.836158859791237</v>
       </c>
       <c r="S13" t="n">
-        <v>34.98996300440348</v>
+        <v>34.98996300440345</v>
       </c>
       <c r="T13" t="n">
-        <v>23.38309022542052</v>
+        <v>23.38309022542049</v>
       </c>
       <c r="U13" t="n">
-        <v>88.30041113171413</v>
+        <v>88.3004111317141</v>
       </c>
       <c r="V13" t="n">
-        <v>44.75315799916805</v>
+        <v>44.75315799916802</v>
       </c>
       <c r="W13" t="n">
-        <v>89.95484990405348</v>
+        <v>89.95484990405345</v>
       </c>
       <c r="X13" t="n">
-        <v>21.56359822296068</v>
+        <v>21.56359822296065</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.78541562888657</v>
+        <v>16.78541562888654</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.14266318391477</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>47.14266318391481</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>40.199089505627</v>
+        <v>40.19908950562706</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.89230219312413</v>
+        <v>26.89230219312407</v>
       </c>
       <c r="T14" t="n">
-        <v>22.05838072575469</v>
+        <v>22.05838072575463</v>
       </c>
       <c r="U14" t="n">
-        <v>49.79374050860084</v>
+        <v>49.79374050860073</v>
       </c>
       <c r="V14" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.063707710285861</v>
+        <v>6.063707710285875</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="T15" t="n">
-        <v>98.93990648501779</v>
+        <v>36.81645877748932</v>
       </c>
       <c r="U15" t="n">
-        <v>36.87179703458434</v>
+        <v>36.87179703458428</v>
       </c>
       <c r="V15" t="n">
-        <v>40.29306373012031</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="W15" t="n">
-        <v>98.93990648501779</v>
+        <v>66.3487263917296</v>
       </c>
       <c r="X15" t="n">
-        <v>79.82917869328716</v>
+        <v>16.95705725418861</v>
       </c>
       <c r="Y15" t="n">
-        <v>23.02842894874368</v>
+        <v>23.02842894874362</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.836158859791174</v>
+        <v>2.836158859791123</v>
       </c>
       <c r="S16" t="n">
-        <v>34.98996300440339</v>
+        <v>34.98996300440334</v>
       </c>
       <c r="T16" t="n">
-        <v>23.38309022542044</v>
+        <v>23.38309022542038</v>
       </c>
       <c r="U16" t="n">
-        <v>88.30041113171404</v>
+        <v>88.30041113171399</v>
       </c>
       <c r="V16" t="n">
-        <v>44.75315799916797</v>
+        <v>44.75315799916791</v>
       </c>
       <c r="W16" t="n">
-        <v>89.95484990405339</v>
+        <v>89.95484990405333</v>
       </c>
       <c r="X16" t="n">
-        <v>21.56359822296059</v>
+        <v>21.56359822296054</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.78541562888648</v>
+        <v>16.78541562888643</v>
       </c>
     </row>
     <row r="17">
@@ -1856,10 +1856,10 @@
         <v>73.35237277478018</v>
       </c>
       <c r="G17" t="n">
-        <v>88.97949861282754</v>
+        <v>88.97949861282757</v>
       </c>
       <c r="H17" t="n">
-        <v>17.05370075428355</v>
+        <v>17.05370075428357</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1965,22 +1965,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="T18" t="n">
-        <v>81.08256192171773</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>87.14626963200359</v>
       </c>
     </row>
     <row r="19">
@@ -2090,7 +2090,7 @@
         <v>41.63203519640285</v>
       </c>
       <c r="F20" t="n">
-        <v>73.35237277478078</v>
+        <v>73.35237277478018</v>
       </c>
       <c r="G20" t="n">
         <v>88.97949861282757</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.063707710285861</v>
+        <v>6.063707710285875</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>81.08256192171773</v>
+        <v>81.08256192171767</v>
       </c>
       <c r="U21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
     </row>
     <row r="22">
@@ -2330,10 +2330,10 @@
         <v>73.35237277478018</v>
       </c>
       <c r="G23" t="n">
-        <v>88.97949861282754</v>
+        <v>88.97949861282757</v>
       </c>
       <c r="H23" t="n">
-        <v>17.05370075428355</v>
+        <v>17.05370075428357</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.063707710285875</v>
       </c>
       <c r="R24" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>81.08256192171771</v>
       </c>
       <c r="Y24" t="n">
-        <v>87.14626963200359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2265260322198</v>
+        <v>161.2265260322197</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3447830355653</v>
+        <v>137.3447830355652</v>
       </c>
       <c r="D26" t="n">
         <v>124.9114452966137</v>
@@ -2573,7 +2573,7 @@
         <v>134.0398632739033</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69423234529537</v>
+        <v>27.69423234529535</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>14.38744503279252</v>
       </c>
       <c r="T26" t="n">
-        <v>9.553523565423058</v>
+        <v>9.553523565423031</v>
       </c>
       <c r="U26" t="n">
-        <v>37.28888334827052</v>
+        <v>37.2888833482703</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0190692635385</v>
+        <v>108.0190692635384</v>
       </c>
       <c r="W26" t="n">
         <v>125.0357494801533</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9219999490926</v>
+        <v>146.9219999490925</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4248530728363</v>
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>90.0186408084716</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.063707710285861</v>
+        <v>6.063707710285875</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3278900205298</v>
+        <v>26.20886685975317</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.084766620974805</v>
+        <v>2.084766620974777</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276542198663</v>
+        <v>24.36693987425268</v>
       </c>
       <c r="V27" t="n">
-        <v>27.78820656978868</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.84386923139803</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.452200093857044</v>
+        <v>4.452200093857016</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.52357178841206</v>
+        <v>10.52357178841203</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.48510584407176</v>
+        <v>22.48510584407174</v>
       </c>
       <c r="T28" t="n">
-        <v>10.87823306508881</v>
+        <v>10.87823306508878</v>
       </c>
       <c r="U28" t="n">
-        <v>75.79555397138242</v>
+        <v>75.79555397138239</v>
       </c>
       <c r="V28" t="n">
-        <v>32.24830083883634</v>
+        <v>32.24830083883631</v>
       </c>
       <c r="W28" t="n">
-        <v>77.44999274372177</v>
+        <v>77.44999274372174</v>
       </c>
       <c r="X28" t="n">
-        <v>9.058741062628968</v>
+        <v>9.05874106262894</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.280558468554858</v>
+        <v>4.28055846855483</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>134.0398632739034</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69423234529546</v>
+        <v>27.69423234529457</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,10 +2843,10 @@
         <v>14.38744503279261</v>
       </c>
       <c r="T29" t="n">
-        <v>9.553523565423193</v>
+        <v>9.553523565423149</v>
       </c>
       <c r="U29" t="n">
-        <v>37.28888334826895</v>
+        <v>37.28888334826925</v>
       </c>
       <c r="V29" t="n">
         <v>108.0190692635385</v>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>15.44120973305248</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2913,28 +2913,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.063707710285861</v>
+        <v>6.063707710285875</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.08476662097489</v>
+        <v>2.084766620974891</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276542198663</v>
+        <v>24.3669398742528</v>
       </c>
       <c r="V30" t="n">
-        <v>27.78820656978877</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.84386923139812</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>94.47084090232828</v>
+        <v>4.45220009385713</v>
       </c>
       <c r="Y30" t="n">
         <v>10.52357178841214</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2265260322199</v>
+        <v>161.2265260322197</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3447830355653</v>
+        <v>137.3447830355652</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9114452966138</v>
+        <v>124.9114452966137</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6181977160227</v>
+        <v>158.6181977160226</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3385352944</v>
+        <v>190.3385352943999</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9656611324474</v>
+        <v>205.9656611324473</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0398632739034</v>
+        <v>134.0398632739033</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69423234529473</v>
+        <v>27.69423234529535</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.38744503279261</v>
+        <v>14.3874450327925</v>
       </c>
       <c r="T32" t="n">
-        <v>9.553523565423143</v>
+        <v>9.553523565422967</v>
       </c>
       <c r="U32" t="n">
-        <v>37.28888334826926</v>
+        <v>37.28888334827052</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0190692635385</v>
+        <v>108.0190692635384</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0357494801534</v>
+        <v>125.0357494801533</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9219999490927</v>
+        <v>146.9219999490925</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4248530728364</v>
+        <v>169.4248530728363</v>
       </c>
     </row>
     <row r="33">
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>6.063707710285861</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T33" t="n">
-        <v>2.08476662097489</v>
+        <v>13.57058310436278</v>
       </c>
       <c r="U33" t="n">
-        <v>24.3669398742528</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V33" t="n">
-        <v>143.1494101995075</v>
+        <v>27.78820656978866</v>
       </c>
       <c r="W33" t="n">
-        <v>53.84386923139812</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.45220009385713</v>
+        <v>4.452200093857016</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.52357178841214</v>
+        <v>10.52357178841203</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.48510584407185</v>
+        <v>22.48510584407174</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8782330650889</v>
+        <v>10.87823306508878</v>
       </c>
       <c r="U34" t="n">
-        <v>75.7955539713825</v>
+        <v>75.79555397138239</v>
       </c>
       <c r="V34" t="n">
-        <v>32.24830083883643</v>
+        <v>32.24830083883631</v>
       </c>
       <c r="W34" t="n">
-        <v>77.44999274372185</v>
+        <v>77.44999274372174</v>
       </c>
       <c r="X34" t="n">
-        <v>9.058741062629053</v>
+        <v>9.05874106262894</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.280558468554943</v>
+        <v>4.28055846855483</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>133.5322936869244</v>
+        <v>133.5322936869243</v>
       </c>
       <c r="C35" t="n">
-        <v>109.6505506902699</v>
+        <v>109.6505506902698</v>
       </c>
       <c r="D35" t="n">
-        <v>97.21721295131832</v>
+        <v>97.21721295131826</v>
       </c>
       <c r="E35" t="n">
-        <v>130.9239653707272</v>
+        <v>130.9239653707271</v>
       </c>
       <c r="F35" t="n">
         <v>162.6443029491045</v>
       </c>
       <c r="G35" t="n">
-        <v>178.2714287871519</v>
+        <v>178.2714287871518</v>
       </c>
       <c r="H35" t="n">
-        <v>106.3456309286079</v>
+        <v>106.3456309286078</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>9.594651002973762</v>
+        <v>9.594651002973706</v>
       </c>
       <c r="V35" t="n">
-        <v>80.32483691824305</v>
+        <v>80.32483691824299</v>
       </c>
       <c r="W35" t="n">
-        <v>97.34151713485792</v>
+        <v>97.34151713485787</v>
       </c>
       <c r="X35" t="n">
-        <v>119.2277676037972</v>
+        <v>119.2277676037971</v>
       </c>
       <c r="Y35" t="n">
         <v>141.7306207275409</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>35.42665230014106</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3393,19 +3393,19 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S36" t="n">
-        <v>138.9957078097488</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0.09397422449328019</v>
+        <v>0.09397422449322335</v>
       </c>
       <c r="W36" t="n">
-        <v>26.14963688610263</v>
+        <v>26.14963688610257</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>48.10132162608701</v>
+        <v>48.10132162608696</v>
       </c>
       <c r="V37" t="n">
-        <v>4.554068493540939</v>
+        <v>4.554068493540882</v>
       </c>
       <c r="W37" t="n">
-        <v>49.75576039842636</v>
+        <v>49.7557603984263</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R39" t="n">
-        <v>38.83235884965562</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0.09397422449328019</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>208.5320206688046</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D41" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131832</v>
       </c>
       <c r="E41" t="n">
         <v>130.9239653707272</v>
@@ -3752,7 +3752,7 @@
         <v>162.6443029491045</v>
       </c>
       <c r="G41" t="n">
-        <v>178.2714287871517</v>
+        <v>178.271428787152</v>
       </c>
       <c r="H41" t="n">
         <v>106.3456309286079</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973762</v>
       </c>
       <c r="V41" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824305</v>
       </c>
       <c r="W41" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485792</v>
       </c>
       <c r="X41" t="n">
         <v>119.2277676037972</v>
       </c>
       <c r="Y41" t="n">
-        <v>141.730620727541</v>
+        <v>141.7306207275409</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276542198663</v>
       </c>
       <c r="V42" t="n">
-        <v>0.09397422449330861</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>120.3553068458333</v>
+        <v>64.98199573575822</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608701</v>
       </c>
       <c r="V43" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540939</v>
       </c>
       <c r="W43" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842636</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.6505506902699</v>
       </c>
       <c r="D44" t="n">
-        <v>97.21721295131834</v>
+        <v>97.21721295131837</v>
       </c>
       <c r="E44" t="n">
         <v>130.9239653707272</v>
       </c>
       <c r="F44" t="n">
-        <v>162.6443029491045</v>
+        <v>162.6443029491046</v>
       </c>
       <c r="G44" t="n">
         <v>178.2714287871519</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.594651002973796</v>
+        <v>9.594651002973825</v>
       </c>
       <c r="V44" t="n">
-        <v>80.32483691824308</v>
+        <v>80.32483691824311</v>
       </c>
       <c r="W44" t="n">
-        <v>97.34151713485795</v>
+        <v>97.34151713485798</v>
       </c>
       <c r="X44" t="n">
         <v>119.2277676037972</v>
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>116.122657324672</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276542198663</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>62.16836532558722</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>26.14963688610266</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>48.10132162608704</v>
+        <v>48.10132162608707</v>
       </c>
       <c r="V46" t="n">
-        <v>4.554068493540967</v>
+        <v>4.554068493540996</v>
       </c>
       <c r="W46" t="n">
-        <v>49.75576039842639</v>
+        <v>49.75576039842642</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.52033343357626</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="C11" t="n">
-        <v>48.52033343357626</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="D11" t="n">
-        <v>48.52033343357626</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="E11" t="n">
-        <v>48.52033343357626</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="F11" t="n">
-        <v>48.52033343357626</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="G11" t="n">
-        <v>48.52033343357626</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="H11" t="n">
-        <v>48.52033343357626</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I11" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J11" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K11" t="n">
-        <v>7.915192518801423</v>
+        <v>11.00241458684139</v>
       </c>
       <c r="L11" t="n">
-        <v>105.865699938969</v>
+        <v>59.56637130118344</v>
       </c>
       <c r="M11" t="n">
-        <v>203.8162073591366</v>
+        <v>157.516878721351</v>
       </c>
       <c r="N11" t="n">
-        <v>301.7667147793043</v>
+        <v>255.4673861415185</v>
       </c>
       <c r="O11" t="n">
-        <v>337.9552154689837</v>
+        <v>291.655886831198</v>
       </c>
       <c r="P11" t="n">
-        <v>389.6063942513658</v>
+        <v>389.6063942513655</v>
       </c>
       <c r="Q11" t="n">
-        <v>389.6063942513658</v>
+        <v>389.6063942513655</v>
       </c>
       <c r="R11" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="S11" t="n">
-        <v>368.5956843308547</v>
+        <v>368.5956843308546</v>
       </c>
       <c r="T11" t="n">
-        <v>346.3144916785772</v>
+        <v>346.314491678577</v>
       </c>
       <c r="U11" t="n">
         <v>296.0177840941317</v>
       </c>
       <c r="V11" t="n">
-        <v>196.0784846143158</v>
+        <v>207.7937914784332</v>
       </c>
       <c r="W11" t="n">
-        <v>96.13918513449963</v>
+        <v>207.7937914784332</v>
       </c>
       <c r="X11" t="n">
-        <v>96.13918513449963</v>
+        <v>207.7937914784332</v>
       </c>
       <c r="Y11" t="n">
-        <v>96.13918513449963</v>
+        <v>207.7937914784332</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L12" t="n">
-        <v>17.08968857556377</v>
+        <v>17.08968857556371</v>
       </c>
       <c r="M12" t="n">
-        <v>115.0401959957314</v>
+        <v>115.0401959957313</v>
       </c>
       <c r="N12" t="n">
-        <v>212.990703415899</v>
+        <v>212.9907034158988</v>
       </c>
       <c r="O12" t="n">
-        <v>310.9412108360666</v>
+        <v>310.9412108360664</v>
       </c>
       <c r="P12" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="Q12" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="R12" t="n">
-        <v>395.7596259400711</v>
+        <v>295.820326460255</v>
       </c>
       <c r="S12" t="n">
-        <v>395.7596259400711</v>
+        <v>240.9251695228029</v>
       </c>
       <c r="T12" t="n">
-        <v>295.8203264602552</v>
+        <v>226.1881758043115</v>
       </c>
       <c r="U12" t="n">
-        <v>195.8810269804392</v>
+        <v>188.9439363754384</v>
       </c>
       <c r="V12" t="n">
-        <v>115.3234880689653</v>
+        <v>148.2438720015794</v>
       </c>
       <c r="W12" t="n">
-        <v>48.30457252176357</v>
+        <v>48.3045725217635</v>
       </c>
       <c r="X12" t="n">
-        <v>31.17623186096684</v>
+        <v>31.17623186096681</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L13" t="n">
-        <v>105.865699938969</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="M13" t="n">
         <v>105.865699938969</v>
       </c>
       <c r="N13" t="n">
-        <v>203.8162073591366</v>
+        <v>203.8162073591365</v>
       </c>
       <c r="O13" t="n">
-        <v>203.8162073591366</v>
+        <v>260.8939069396883</v>
       </c>
       <c r="P13" t="n">
-        <v>260.8939069396885</v>
+        <v>260.8939069396883</v>
       </c>
       <c r="Q13" t="n">
-        <v>333.7400864343551</v>
+        <v>333.740086434355</v>
       </c>
       <c r="R13" t="n">
-        <v>330.875279505273</v>
+        <v>330.8752795052729</v>
       </c>
       <c r="S13" t="n">
-        <v>295.5318825311281</v>
+        <v>295.531882531128</v>
       </c>
       <c r="T13" t="n">
-        <v>271.9125994751478</v>
+        <v>271.9125994751477</v>
       </c>
       <c r="U13" t="n">
-        <v>182.7202649986689</v>
+        <v>182.7202649986688</v>
       </c>
       <c r="V13" t="n">
-        <v>137.5150548984991</v>
+        <v>137.515054898499</v>
       </c>
       <c r="W13" t="n">
-        <v>46.65157014692996</v>
+        <v>46.6515701469299</v>
       </c>
       <c r="X13" t="n">
-        <v>24.87015780050503</v>
+        <v>24.87015780050499</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.52033343357618</v>
+        <v>96.13918513450028</v>
       </c>
       <c r="C14" t="n">
-        <v>48.52033343357618</v>
+        <v>96.13918513450028</v>
       </c>
       <c r="D14" t="n">
-        <v>48.52033343357618</v>
+        <v>96.13918513450028</v>
       </c>
       <c r="E14" t="n">
-        <v>48.52033343357618</v>
+        <v>96.13918513450028</v>
       </c>
       <c r="F14" t="n">
-        <v>48.52033343357618</v>
+        <v>96.13918513450028</v>
       </c>
       <c r="G14" t="n">
-        <v>48.52033343357618</v>
+        <v>48.52033343357623</v>
       </c>
       <c r="H14" t="n">
-        <v>48.52033343357618</v>
+        <v>48.52033343357623</v>
       </c>
       <c r="I14" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J14" t="n">
-        <v>7.915192518801423</v>
+        <v>105.865699938969</v>
       </c>
       <c r="K14" t="n">
-        <v>67.72952543898913</v>
+        <v>108.9529220070088</v>
       </c>
       <c r="L14" t="n">
-        <v>116.2934821533312</v>
+        <v>157.5168787213508</v>
       </c>
       <c r="M14" t="n">
-        <v>214.2439895734988</v>
+        <v>255.4673861415184</v>
       </c>
       <c r="N14" t="n">
-        <v>291.6558868311981</v>
+        <v>353.417893561686</v>
       </c>
       <c r="O14" t="n">
-        <v>389.6063942513657</v>
+        <v>389.6063942513654</v>
       </c>
       <c r="P14" t="n">
-        <v>389.6063942513657</v>
+        <v>389.6063942513654</v>
       </c>
       <c r="Q14" t="n">
-        <v>389.6063942513657</v>
+        <v>389.6063942513654</v>
       </c>
       <c r="R14" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="S14" t="n">
-        <v>368.5956843308549</v>
+        <v>368.5956843308547</v>
       </c>
       <c r="T14" t="n">
-        <v>346.3144916785774</v>
+        <v>346.3144916785773</v>
       </c>
       <c r="U14" t="n">
         <v>296.0177840941321</v>
       </c>
       <c r="V14" t="n">
-        <v>196.0784846143161</v>
+        <v>296.0177840941321</v>
       </c>
       <c r="W14" t="n">
-        <v>96.1391851345002</v>
+        <v>196.0784846143162</v>
       </c>
       <c r="X14" t="n">
-        <v>96.1391851345002</v>
+        <v>196.0784846143162</v>
       </c>
       <c r="Y14" t="n">
-        <v>96.1391851345002</v>
+        <v>196.0784846143162</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L15" t="n">
-        <v>17.08968857556377</v>
+        <v>17.08968857556371</v>
       </c>
       <c r="M15" t="n">
-        <v>115.0401959957314</v>
+        <v>115.0401959957313</v>
       </c>
       <c r="N15" t="n">
-        <v>212.990703415899</v>
+        <v>212.9907034158988</v>
       </c>
       <c r="O15" t="n">
-        <v>310.9412108360666</v>
+        <v>310.9412108360664</v>
       </c>
       <c r="P15" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="Q15" t="n">
-        <v>389.6346686569541</v>
+        <v>389.6346686569539</v>
       </c>
       <c r="R15" t="n">
-        <v>389.6346686569541</v>
+        <v>389.6346686569539</v>
       </c>
       <c r="S15" t="n">
-        <v>389.6346686569541</v>
+        <v>289.695369177138</v>
       </c>
       <c r="T15" t="n">
-        <v>289.6953691771381</v>
+        <v>252.5070269776538</v>
       </c>
       <c r="U15" t="n">
-        <v>252.451129748265</v>
+        <v>215.2627875487808</v>
       </c>
       <c r="V15" t="n">
-        <v>211.7510653744061</v>
+        <v>115.3234880689649</v>
       </c>
       <c r="W15" t="n">
-        <v>111.8117658945902</v>
+        <v>48.30457252176328</v>
       </c>
       <c r="X15" t="n">
-        <v>31.17623186096676</v>
+        <v>31.1762318609667</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C16" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D16" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E16" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F16" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G16" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H16" t="n">
-        <v>7.915192518801423</v>
+        <v>42.14791715790109</v>
       </c>
       <c r="I16" t="n">
-        <v>7.915192518801423</v>
+        <v>42.14791715790109</v>
       </c>
       <c r="J16" t="n">
-        <v>7.915192518801423</v>
+        <v>121.8334034016512</v>
       </c>
       <c r="K16" t="n">
-        <v>105.865699938969</v>
+        <v>121.8334034016512</v>
       </c>
       <c r="L16" t="n">
-        <v>105.865699938969</v>
+        <v>121.8334034016512</v>
       </c>
       <c r="M16" t="n">
-        <v>203.8162073591366</v>
+        <v>121.8334034016512</v>
       </c>
       <c r="N16" t="n">
-        <v>235.7895790141869</v>
+        <v>219.7839108218188</v>
       </c>
       <c r="O16" t="n">
-        <v>333.7400864343545</v>
+        <v>235.7895790141865</v>
       </c>
       <c r="P16" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343541</v>
       </c>
       <c r="Q16" t="n">
-        <v>333.7400864343545</v>
+        <v>333.7400864343541</v>
       </c>
       <c r="R16" t="n">
-        <v>330.8752795052725</v>
+        <v>330.8752795052721</v>
       </c>
       <c r="S16" t="n">
-        <v>295.5318825311276</v>
+        <v>295.5318825311273</v>
       </c>
       <c r="T16" t="n">
-        <v>271.9125994751474</v>
+        <v>271.9125994751471</v>
       </c>
       <c r="U16" t="n">
-        <v>182.7202649986685</v>
+        <v>182.7202649986683</v>
       </c>
       <c r="V16" t="n">
-        <v>137.5150548984989</v>
+        <v>137.5150548984987</v>
       </c>
       <c r="W16" t="n">
-        <v>46.65157014692979</v>
+        <v>46.65157014692967</v>
       </c>
       <c r="X16" t="n">
-        <v>24.87015780050494</v>
+        <v>24.87015780050488</v>
       </c>
       <c r="Y16" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>259.7349002271188</v>
+        <v>259.7349002271186</v>
       </c>
       <c r="C17" t="n">
-        <v>239.170637079699</v>
+        <v>239.1706370796987</v>
       </c>
       <c r="D17" t="n">
-        <v>231.1653009413212</v>
+        <v>231.165300941321</v>
       </c>
       <c r="E17" t="n">
-        <v>189.1127401368735</v>
+        <v>189.1127401368737</v>
       </c>
       <c r="F17" t="n">
-        <v>115.0194343037622</v>
+        <v>115.0194343037624</v>
       </c>
       <c r="G17" t="n">
-        <v>25.14115287666359</v>
+        <v>25.14115287666361</v>
       </c>
       <c r="H17" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I17" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J17" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K17" t="n">
-        <v>43.85462273276189</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L17" t="n">
-        <v>92.41857944710397</v>
+        <v>56.47914923314347</v>
       </c>
       <c r="M17" t="n">
-        <v>175.3312982490042</v>
+        <v>139.3918680350437</v>
       </c>
       <c r="N17" t="n">
-        <v>252.7431955067036</v>
+        <v>216.803765292743</v>
       </c>
       <c r="O17" t="n">
-        <v>288.9316961963831</v>
+        <v>252.9922659824225</v>
       </c>
       <c r="P17" t="n">
-        <v>288.9316961963831</v>
+        <v>252.9922659824225</v>
       </c>
       <c r="Q17" t="n">
-        <v>288.9316961963831</v>
+        <v>350.94277340259</v>
       </c>
       <c r="R17" t="n">
-        <v>288.9316961963831</v>
+        <v>350.94277340259</v>
       </c>
       <c r="S17" t="n">
-        <v>288.9316961963831</v>
+        <v>386.8822036165504</v>
       </c>
       <c r="T17" t="n">
-        <v>386.8822036165507</v>
+        <v>386.8822036165504</v>
       </c>
       <c r="U17" t="n">
-        <v>386.8822036165507</v>
+        <v>386.8822036165504</v>
       </c>
       <c r="V17" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="W17" t="n">
-        <v>387.6287300203403</v>
+        <v>387.6287300203401</v>
       </c>
       <c r="X17" t="n">
-        <v>357.3905103946104</v>
+        <v>357.3905103946101</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.422136098432</v>
+        <v>304.4221360984317</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K18" t="n">
-        <v>7.915192518801423</v>
+        <v>17.08968857556371</v>
       </c>
       <c r="L18" t="n">
-        <v>17.08968857556377</v>
+        <v>17.08968857556371</v>
       </c>
       <c r="M18" t="n">
-        <v>115.0401959957314</v>
+        <v>115.0401959957313</v>
       </c>
       <c r="N18" t="n">
-        <v>212.990703415899</v>
+        <v>212.9907034158988</v>
       </c>
       <c r="O18" t="n">
-        <v>310.9412108360666</v>
+        <v>310.9412108360664</v>
       </c>
       <c r="P18" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="Q18" t="n">
-        <v>389.6346686569541</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="R18" t="n">
-        <v>289.6953691771381</v>
+        <v>295.820326460255</v>
       </c>
       <c r="S18" t="n">
-        <v>289.6953691771381</v>
+        <v>195.8810269804391</v>
       </c>
       <c r="T18" t="n">
-        <v>207.7937914784333</v>
+        <v>195.8810269804391</v>
       </c>
       <c r="U18" t="n">
-        <v>107.8544919986174</v>
+        <v>195.8810269804391</v>
       </c>
       <c r="V18" t="n">
-        <v>7.915192518801423</v>
+        <v>95.94172750062324</v>
       </c>
       <c r="W18" t="n">
-        <v>7.915192518801423</v>
+        <v>95.94172750062324</v>
       </c>
       <c r="X18" t="n">
-        <v>7.915192518801423</v>
+        <v>95.94172750062324</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="M19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="N19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="O19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="P19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="R19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="S19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="T19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="U19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="V19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="W19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="X19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>259.7349002271187</v>
+        <v>259.7349002271185</v>
       </c>
       <c r="C20" t="n">
-        <v>239.170637079699</v>
+        <v>239.1706370796989</v>
       </c>
       <c r="D20" t="n">
-        <v>231.1653009413213</v>
+        <v>231.1653009413211</v>
       </c>
       <c r="E20" t="n">
-        <v>189.112740136874</v>
+        <v>189.1127401368738</v>
       </c>
       <c r="F20" t="n">
-        <v>115.0194343037621</v>
+        <v>115.0194343037625</v>
       </c>
       <c r="G20" t="n">
         <v>25.14115287666361</v>
       </c>
       <c r="H20" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I20" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J20" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K20" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L20" t="n">
-        <v>56.4791492331435</v>
+        <v>56.47914923314347</v>
       </c>
       <c r="M20" t="n">
-        <v>139.3918680350438</v>
+        <v>139.3918680350437</v>
       </c>
       <c r="N20" t="n">
-        <v>237.3423754552114</v>
+        <v>216.803765292743</v>
       </c>
       <c r="O20" t="n">
-        <v>273.5308761448909</v>
+        <v>314.7542727129105</v>
       </c>
       <c r="P20" t="n">
-        <v>273.5308761448909</v>
+        <v>314.7542727129105</v>
       </c>
       <c r="Q20" t="n">
-        <v>273.5308761448909</v>
+        <v>314.7542727129105</v>
       </c>
       <c r="R20" t="n">
-        <v>273.5308761448909</v>
+        <v>314.7542727129105</v>
       </c>
       <c r="S20" t="n">
-        <v>371.4813835650585</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="T20" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="U20" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="V20" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="W20" t="n">
-        <v>387.6287300203402</v>
+        <v>387.6287300203401</v>
       </c>
       <c r="X20" t="n">
-        <v>357.3905103946101</v>
+        <v>357.39051039461</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.4221360984318</v>
+        <v>304.4221360984316</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>7.915192518801423</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="C21" t="n">
-        <v>7.915192518801423</v>
+        <v>107.8544919986173</v>
       </c>
       <c r="D21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K21" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L21" t="n">
-        <v>17.08968857556377</v>
+        <v>17.08968857556371</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0401959957314</v>
+        <v>115.0401959957313</v>
       </c>
       <c r="N21" t="n">
-        <v>212.990703415899</v>
+        <v>212.9907034158988</v>
       </c>
       <c r="O21" t="n">
-        <v>310.9412108360666</v>
+        <v>310.9412108360664</v>
       </c>
       <c r="P21" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="Q21" t="n">
-        <v>389.6346686569541</v>
+        <v>389.6346686569539</v>
       </c>
       <c r="R21" t="n">
-        <v>389.6346686569541</v>
+        <v>389.6346686569539</v>
       </c>
       <c r="S21" t="n">
-        <v>289.6953691771381</v>
+        <v>389.6346686569539</v>
       </c>
       <c r="T21" t="n">
-        <v>207.7937914784333</v>
+        <v>307.7330909582491</v>
       </c>
       <c r="U21" t="n">
-        <v>107.8544919986174</v>
+        <v>307.7330909582491</v>
       </c>
       <c r="V21" t="n">
-        <v>107.8544919986174</v>
+        <v>307.7330909582491</v>
       </c>
       <c r="W21" t="n">
-        <v>7.915192518801423</v>
+        <v>307.7330909582491</v>
       </c>
       <c r="X21" t="n">
-        <v>7.915192518801423</v>
+        <v>207.7937914784332</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.915192518801423</v>
+        <v>107.8544919986173</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="M22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="N22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="O22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="P22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="R22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="S22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="T22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="U22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="V22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="W22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="X22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>259.7349002271182</v>
+        <v>259.7349002271185</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1706370796985</v>
+        <v>239.1706370796988</v>
       </c>
       <c r="D23" t="n">
-        <v>231.1653009413207</v>
+        <v>231.165300941321</v>
       </c>
       <c r="E23" t="n">
-        <v>189.1127401368734</v>
+        <v>189.1127401368737</v>
       </c>
       <c r="F23" t="n">
-        <v>115.0194343037621</v>
+        <v>115.0194343037624</v>
       </c>
       <c r="G23" t="n">
-        <v>25.14115287666359</v>
+        <v>25.14115287666361</v>
       </c>
       <c r="H23" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I23" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J23" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K23" t="n">
-        <v>68.3819355834936</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L23" t="n">
-        <v>116.9458922978357</v>
+        <v>56.47914923314347</v>
       </c>
       <c r="M23" t="n">
-        <v>199.858611099736</v>
+        <v>139.3918680350437</v>
       </c>
       <c r="N23" t="n">
-        <v>297.8091185199036</v>
+        <v>216.803765292743</v>
       </c>
       <c r="O23" t="n">
-        <v>395.7596259400711</v>
+        <v>252.9922659824225</v>
       </c>
       <c r="P23" t="n">
-        <v>395.7596259400711</v>
+        <v>297.8091185199033</v>
       </c>
       <c r="Q23" t="n">
-        <v>395.7596259400711</v>
+        <v>297.8091185199033</v>
       </c>
       <c r="R23" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="S23" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="T23" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="U23" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="V23" t="n">
-        <v>395.7596259400707</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="W23" t="n">
-        <v>387.6287300203398</v>
+        <v>387.6287300203401</v>
       </c>
       <c r="X23" t="n">
-        <v>357.3905103946097</v>
+        <v>357.39051039461</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4221360984313</v>
+        <v>304.4221360984316</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L24" t="n">
-        <v>17.08968857556377</v>
+        <v>17.08968857556371</v>
       </c>
       <c r="M24" t="n">
-        <v>115.0401959957314</v>
+        <v>115.0401959957313</v>
       </c>
       <c r="N24" t="n">
-        <v>212.990703415899</v>
+        <v>212.9907034158988</v>
       </c>
       <c r="O24" t="n">
-        <v>310.9412108360666</v>
+        <v>310.9412108360664</v>
       </c>
       <c r="P24" t="n">
-        <v>395.7596259400711</v>
+        <v>395.7596259400709</v>
       </c>
       <c r="Q24" t="n">
-        <v>395.7596259400711</v>
+        <v>389.6346686569539</v>
       </c>
       <c r="R24" t="n">
-        <v>295.8203264602552</v>
+        <v>289.695369177138</v>
       </c>
       <c r="S24" t="n">
-        <v>295.8203264602552</v>
+        <v>289.695369177138</v>
       </c>
       <c r="T24" t="n">
-        <v>195.8810269804392</v>
+        <v>289.695369177138</v>
       </c>
       <c r="U24" t="n">
-        <v>95.94172750062324</v>
+        <v>189.7560696973221</v>
       </c>
       <c r="V24" t="n">
-        <v>95.94172750062324</v>
+        <v>189.7560696973221</v>
       </c>
       <c r="W24" t="n">
-        <v>95.94172750062324</v>
+        <v>89.81677021750619</v>
       </c>
       <c r="X24" t="n">
-        <v>95.94172750062324</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="C25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="D25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="E25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="F25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="G25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="H25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="I25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="J25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="K25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="L25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="M25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="N25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="O25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="P25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="R25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="S25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="T25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="U25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="V25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="W25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="X25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.915192518801423</v>
+        <v>7.915192518801419</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.891650267093</v>
+        <v>1024.891650267094</v>
       </c>
       <c r="C26" t="n">
-        <v>886.1595461907647</v>
+        <v>886.1595461907651</v>
       </c>
       <c r="D26" t="n">
-        <v>759.9863691234781</v>
+        <v>759.9863691234784</v>
       </c>
       <c r="E26" t="n">
-        <v>599.7659673901219</v>
+        <v>599.7659673901222</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5048206281017</v>
+        <v>407.5048206281022</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4586982720946</v>
+        <v>199.4586982720945</v>
       </c>
       <c r="H26" t="n">
-        <v>64.0648969853236</v>
+        <v>64.06489698532357</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J26" t="n">
         <v>171.8005131365276</v>
@@ -6233,7 +6233,7 @@
         <v>636.6544414676674</v>
       </c>
       <c r="M26" t="n">
-        <v>930.2992674717244</v>
+        <v>930.2992674717251</v>
       </c>
       <c r="N26" t="n">
         <v>1218.443271931581</v>
@@ -6245,7 +6245,7 @@
         <v>1662.834462498258</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R26" t="n">
         <v>1804.546245968433</v>
@@ -6269,7 +6269,7 @@
         <v>1358.882942292403</v>
       </c>
       <c r="Y26" t="n">
-        <v>1187.746727067315</v>
+        <v>1187.746727067316</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>127.0188449279259</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K27" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792283</v>
       </c>
       <c r="L27" t="n">
-        <v>193.7531079096929</v>
+        <v>193.7531079096928</v>
       </c>
       <c r="M27" t="n">
         <v>377.0131310500093</v>
       </c>
       <c r="N27" t="n">
-        <v>583.5433912625119</v>
+        <v>583.5433912625118</v>
       </c>
       <c r="O27" t="n">
-        <v>716.7311480351774</v>
+        <v>716.7311480351773</v>
       </c>
       <c r="P27" t="n">
-        <v>801.5495631391819</v>
+        <v>801.5495631391818</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.4246058560649</v>
+        <v>795.4246058560648</v>
       </c>
       <c r="R27" t="n">
-        <v>659.7398684615903</v>
+        <v>768.9510029674252</v>
       </c>
       <c r="S27" t="n">
-        <v>466.3322474777207</v>
+        <v>768.9510029674252</v>
       </c>
       <c r="T27" t="n">
-        <v>464.2264226080492</v>
+        <v>766.8451780977538</v>
       </c>
       <c r="U27" t="n">
-        <v>224.6025294566691</v>
+        <v>742.2321075177006</v>
       </c>
       <c r="V27" t="n">
-        <v>196.53363393163</v>
+        <v>499.1523894213347</v>
       </c>
       <c r="W27" t="n">
-        <v>142.1458872332482</v>
+        <v>229.753820151626</v>
       </c>
       <c r="X27" t="n">
-        <v>137.6487154212714</v>
+        <v>225.2566483396492</v>
       </c>
       <c r="Y27" t="n">
-        <v>127.0188449279259</v>
+        <v>214.6267778463038</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09092491936867</v>
+        <v>75.45396469873427</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09092491936867</v>
+        <v>75.45396469873427</v>
       </c>
       <c r="N28" t="n">
-        <v>107.5888879760765</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="O28" t="n">
-        <v>107.5888879760765</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="P28" t="n">
-        <v>261.0608186465659</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.0608186465659</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="R28" t="n">
-        <v>270.6328299641009</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="S28" t="n">
-        <v>247.9206018387759</v>
+        <v>247.9206018387757</v>
       </c>
       <c r="T28" t="n">
-        <v>236.9324876316155</v>
+        <v>236.9324876316153</v>
       </c>
       <c r="U28" t="n">
-        <v>160.3713220039565</v>
+        <v>160.3713220039564</v>
       </c>
       <c r="V28" t="n">
         <v>127.7972807526066</v>
       </c>
       <c r="W28" t="n">
-        <v>49.56496484985738</v>
+        <v>49.56496484985732</v>
       </c>
       <c r="X28" t="n">
-        <v>40.41472135225236</v>
+        <v>40.41472135225233</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.891650267094</v>
+        <v>1024.891650267093</v>
       </c>
       <c r="C29" t="n">
-        <v>886.1595461907657</v>
+        <v>886.1595461907647</v>
       </c>
       <c r="D29" t="n">
-        <v>759.9863691234784</v>
+        <v>759.986369123478</v>
       </c>
       <c r="E29" t="n">
-        <v>599.7659673901222</v>
+        <v>599.7659673901217</v>
       </c>
       <c r="F29" t="n">
-        <v>407.504820628102</v>
+        <v>407.5048206281014</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4586982720946</v>
+        <v>199.4586982720939</v>
       </c>
       <c r="H29" t="n">
-        <v>64.06489698532368</v>
+        <v>64.06489698532278</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J29" t="n">
         <v>171.8005131365275</v>
@@ -6467,10 +6467,10 @@
         <v>377.3583775511677</v>
       </c>
       <c r="L29" t="n">
-        <v>636.6544414676671</v>
+        <v>636.6544414676673</v>
       </c>
       <c r="M29" t="n">
-        <v>930.2992674717248</v>
+        <v>930.299267471725</v>
       </c>
       <c r="N29" t="n">
         <v>1218.443271931581</v>
@@ -6482,28 +6482,28 @@
         <v>1662.834462498258</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R29" t="n">
         <v>1804.546245968433</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.013473208037</v>
+        <v>1790.013473208036</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.363449404579</v>
+        <v>1780.363449404578</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.697910668954</v>
+        <v>1742.697910668953</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.587739695683</v>
+        <v>1633.587739695682</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.289002847043</v>
+        <v>1507.289002847042</v>
       </c>
       <c r="X29" t="n">
-        <v>1358.882942292404</v>
+        <v>1358.882942292403</v>
       </c>
       <c r="Y29" t="n">
         <v>1187.746727067316</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09092491936867</v>
+        <v>225.5031991864049</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K30" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792283</v>
       </c>
       <c r="L30" t="n">
-        <v>193.7531079096929</v>
+        <v>193.7531079096928</v>
       </c>
       <c r="M30" t="n">
         <v>377.0131310500093</v>
       </c>
       <c r="N30" t="n">
-        <v>583.5433912625119</v>
+        <v>583.5433912625118</v>
       </c>
       <c r="O30" t="n">
-        <v>716.7311480351774</v>
+        <v>716.7311480351773</v>
       </c>
       <c r="P30" t="n">
-        <v>801.5495631391819</v>
+        <v>801.5495631391818</v>
       </c>
       <c r="Q30" t="n">
-        <v>795.4246058560649</v>
+        <v>795.4246058560648</v>
       </c>
       <c r="R30" t="n">
-        <v>659.7398684615903</v>
+        <v>795.4246058560648</v>
       </c>
       <c r="S30" t="n">
-        <v>466.3322474777207</v>
+        <v>795.4246058560648</v>
       </c>
       <c r="T30" t="n">
-        <v>464.2264226080491</v>
+        <v>793.3187809863932</v>
       </c>
       <c r="U30" t="n">
-        <v>224.602529456669</v>
+        <v>768.7057104063399</v>
       </c>
       <c r="V30" t="n">
-        <v>196.5336339316298</v>
+        <v>525.625992309974</v>
       </c>
       <c r="W30" t="n">
-        <v>142.1458872332479</v>
+        <v>256.2274230402653</v>
       </c>
       <c r="X30" t="n">
-        <v>46.72079541271427</v>
+        <v>251.7302512282884</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09092491936867</v>
+        <v>241.1003807349428</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="M31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="N31" t="n">
-        <v>185.4068418807066</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="O31" t="n">
-        <v>185.4068418807066</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="P31" t="n">
-        <v>185.4068418807066</v>
+        <v>189.562855589858</v>
       </c>
       <c r="Q31" t="n">
         <v>270.6328299641015</v>
@@ -6661,10 +6661,10 @@
         <v>49.56496484985755</v>
       </c>
       <c r="X31" t="n">
-        <v>40.41472135225245</v>
+        <v>40.41472135225244</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.891650267094</v>
+        <v>1024.891650267093</v>
       </c>
       <c r="C32" t="n">
-        <v>886.1595461907652</v>
+        <v>886.1595461907649</v>
       </c>
       <c r="D32" t="n">
-        <v>759.9863691234785</v>
+        <v>759.986369123478</v>
       </c>
       <c r="E32" t="n">
-        <v>599.7659673901223</v>
+        <v>599.7659673901218</v>
       </c>
       <c r="F32" t="n">
-        <v>407.504820628102</v>
+        <v>407.5048206281017</v>
       </c>
       <c r="G32" t="n">
-        <v>199.458698272094</v>
+        <v>199.4586982720944</v>
       </c>
       <c r="H32" t="n">
-        <v>64.06489698532295</v>
+        <v>64.06489698532356</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8005131365275</v>
+        <v>171.8005131365276</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3583775511677</v>
+        <v>377.3583775511679</v>
       </c>
       <c r="L32" t="n">
-        <v>636.6544414676671</v>
+        <v>636.6544414676674</v>
       </c>
       <c r="M32" t="n">
-        <v>930.2992674717248</v>
+        <v>930.2992674717251</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.443271931582</v>
+        <v>1218.443271931581</v>
       </c>
       <c r="O32" t="n">
-        <v>1465.363879823419</v>
+        <v>1465.363879823418</v>
       </c>
       <c r="P32" t="n">
-        <v>1662.834462498259</v>
+        <v>1662.834462498258</v>
       </c>
       <c r="Q32" t="n">
-        <v>1786.013205691</v>
+        <v>1786.013205690999</v>
       </c>
       <c r="R32" t="n">
         <v>1804.546245968433</v>
@@ -6731,10 +6731,10 @@
         <v>1780.363449404579</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.697910668953</v>
+        <v>1742.697910668952</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.587739695682</v>
+        <v>1633.587739695681</v>
       </c>
       <c r="W32" t="n">
         <v>1507.289002847042</v>
@@ -6743,7 +6743,7 @@
         <v>1358.882942292403</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.746727067316</v>
+        <v>1187.746727067315</v>
       </c>
     </row>
     <row r="33">
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.5031991864049</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K33" t="n">
-        <v>75.06334170792286</v>
+        <v>75.06334170792285</v>
       </c>
       <c r="L33" t="n">
         <v>193.7531079096929</v>
@@ -6801,28 +6801,28 @@
         <v>795.4246058560649</v>
       </c>
       <c r="R33" t="n">
-        <v>659.7398684615903</v>
+        <v>795.4246058560649</v>
       </c>
       <c r="S33" t="n">
-        <v>466.3322474777207</v>
+        <v>602.0169848721953</v>
       </c>
       <c r="T33" t="n">
-        <v>464.2264226080491</v>
+        <v>588.3093251708187</v>
       </c>
       <c r="U33" t="n">
-        <v>439.6133520279957</v>
+        <v>348.6854320194387</v>
       </c>
       <c r="V33" t="n">
-        <v>295.0179881901094</v>
+        <v>320.6165364943996</v>
       </c>
       <c r="W33" t="n">
-        <v>240.6302414917274</v>
+        <v>51.21796722469093</v>
       </c>
       <c r="X33" t="n">
-        <v>236.1330696797505</v>
+        <v>46.72079541271415</v>
       </c>
       <c r="Y33" t="n">
-        <v>225.5031991864049</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="H34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="J34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="K34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="L34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="M34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
       <c r="N34" t="n">
-        <v>117.1608992936122</v>
+        <v>96.26430540999453</v>
       </c>
       <c r="O34" t="n">
-        <v>117.1608992936122</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="P34" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="R34" t="n">
-        <v>270.6328299641015</v>
+        <v>270.6328299641007</v>
       </c>
       <c r="S34" t="n">
-        <v>247.9206018387764</v>
+        <v>247.9206018387757</v>
       </c>
       <c r="T34" t="n">
-        <v>236.9324876316159</v>
+        <v>236.9324876316153</v>
       </c>
       <c r="U34" t="n">
-        <v>160.3713220039568</v>
+        <v>160.3713220039564</v>
       </c>
       <c r="V34" t="n">
-        <v>127.7972807526069</v>
+        <v>127.7972807526066</v>
       </c>
       <c r="W34" t="n">
-        <v>49.56496484985755</v>
+        <v>49.56496484985732</v>
       </c>
       <c r="X34" t="n">
-        <v>40.41472135225245</v>
+        <v>40.41472135225233</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09092491936867</v>
+        <v>36.09092491936866</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>821.1586532866074</v>
+        <v>821.1586532866077</v>
       </c>
       <c r="C35" t="n">
-        <v>710.4005212762339</v>
+        <v>710.4005212762341</v>
       </c>
       <c r="D35" t="n">
-        <v>612.2013162749025</v>
+        <v>612.2013162749028</v>
       </c>
       <c r="E35" t="n">
-        <v>479.9548866075013</v>
+        <v>479.9548866075016</v>
       </c>
       <c r="F35" t="n">
-        <v>315.6677119114361</v>
+        <v>315.6677119114365</v>
       </c>
       <c r="G35" t="n">
-        <v>135.5955616213837</v>
+        <v>135.5955616213841</v>
       </c>
       <c r="H35" t="n">
         <v>28.17573240056725</v>
@@ -6935,34 +6935,34 @@
         <v>28.17573240056725</v>
       </c>
       <c r="J35" t="n">
-        <v>191.3026106395686</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K35" t="n">
-        <v>424.2777650760514</v>
+        <v>261.1508868370501</v>
       </c>
       <c r="L35" t="n">
-        <v>672.1528819276729</v>
+        <v>309.7148435513921</v>
       </c>
       <c r="M35" t="n">
-        <v>755.0656007295731</v>
+        <v>443.4035217217169</v>
       </c>
       <c r="N35" t="n">
-        <v>832.4774979872725</v>
+        <v>758.9648162034161</v>
       </c>
       <c r="O35" t="n">
-        <v>1106.815395900952</v>
+        <v>1033.302714117096</v>
       </c>
       <c r="P35" t="n">
-        <v>1331.703268597634</v>
+        <v>1258.190586813778</v>
       </c>
       <c r="Q35" t="n">
-        <v>1331.703268597634</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="R35" t="n">
-        <v>1377.653598896911</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="S35" t="n">
-        <v>1390.827318336288</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="T35" t="n">
         <v>1408.786620028362</v>
@@ -6980,7 +6980,7 @@
         <v>1099.202001180007</v>
       </c>
       <c r="Y35" t="n">
-        <v>956.0397580208745</v>
+        <v>956.0397580208746</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>28.17573240056725</v>
+        <v>253.3725039404733</v>
       </c>
       <c r="C36" t="n">
-        <v>28.17573240056725</v>
+        <v>63.960229673437</v>
       </c>
       <c r="D36" t="n">
-        <v>28.17573240056725</v>
+        <v>63.960229673437</v>
       </c>
       <c r="E36" t="n">
-        <v>28.17573240056725</v>
+        <v>63.960229673437</v>
       </c>
       <c r="F36" t="n">
         <v>28.17573240056725</v>
@@ -7041,25 +7041,25 @@
         <v>651.8246759427889</v>
       </c>
       <c r="S36" t="n">
-        <v>511.4249710844567</v>
+        <v>458.4170549589193</v>
       </c>
       <c r="T36" t="n">
-        <v>294.3083236434584</v>
+        <v>458.4170549589193</v>
       </c>
       <c r="U36" t="n">
-        <v>54.68443049207826</v>
+        <v>458.4170549589193</v>
       </c>
       <c r="V36" t="n">
-        <v>54.58950703299414</v>
+        <v>458.3221314998352</v>
       </c>
       <c r="W36" t="n">
-        <v>28.17573240056725</v>
+        <v>431.9083568674084</v>
       </c>
       <c r="X36" t="n">
-        <v>28.17573240056725</v>
+        <v>431.9083568674084</v>
       </c>
       <c r="Y36" t="n">
-        <v>28.17573240056725</v>
+        <v>431.9083568674084</v>
       </c>
     </row>
     <row r="37">
@@ -7102,34 +7102,34 @@
         <v>28.17573240056725</v>
       </c>
       <c r="M37" t="n">
-        <v>28.17573240056725</v>
+        <v>94.63203764508278</v>
       </c>
       <c r="N37" t="n">
-        <v>28.17573240056725</v>
+        <v>94.63203764508278</v>
       </c>
       <c r="O37" t="n">
-        <v>89.4750024088716</v>
+        <v>94.63203764508278</v>
       </c>
       <c r="P37" t="n">
-        <v>89.4750024088716</v>
+        <v>94.63203764508278</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.4750024088716</v>
+        <v>94.63203764508278</v>
       </c>
       <c r="R37" t="n">
-        <v>126.4643037482491</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="S37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="T37" t="n">
-        <v>131.6213389844605</v>
+        <v>131.6213389844603</v>
       </c>
       <c r="U37" t="n">
-        <v>83.03414542275644</v>
+        <v>83.03414542275632</v>
       </c>
       <c r="V37" t="n">
-        <v>78.43407623736155</v>
+        <v>78.4340762373615</v>
       </c>
       <c r="W37" t="n">
         <v>28.17573240056725</v>
@@ -7151,7 +7151,7 @@
         <v>821.1586532866079</v>
       </c>
       <c r="C38" t="n">
-        <v>710.4005212762343</v>
+        <v>710.4005212762341</v>
       </c>
       <c r="D38" t="n">
         <v>612.2013162749025</v>
@@ -7163,7 +7163,7 @@
         <v>315.6677119114361</v>
       </c>
       <c r="G38" t="n">
-        <v>135.5955616213837</v>
+        <v>135.5955616213833</v>
       </c>
       <c r="H38" t="n">
         <v>28.17573240056725</v>
@@ -7181,25 +7181,25 @@
         <v>478.0159645779106</v>
       </c>
       <c r="M38" t="n">
-        <v>799.0780806038108</v>
+        <v>768.2393201689508</v>
       </c>
       <c r="N38" t="n">
-        <v>951.16388312814</v>
+        <v>1083.80061465065</v>
       </c>
       <c r="O38" t="n">
-        <v>987.3523838178195</v>
+        <v>1119.98911534033</v>
       </c>
       <c r="P38" t="n">
-        <v>1212.240256514502</v>
+        <v>1344.876988037012</v>
       </c>
       <c r="Q38" t="n">
-        <v>1362.836289729086</v>
+        <v>1344.876988037012</v>
       </c>
       <c r="R38" t="n">
-        <v>1408.786620028362</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="S38" t="n">
-        <v>1408.786620028362</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T38" t="n">
         <v>1408.786620028362</v>
@@ -7272,25 +7272,25 @@
         <v>793.6343706203805</v>
       </c>
       <c r="Q39" t="n">
-        <v>793.6343706203805</v>
+        <v>787.5094133372635</v>
       </c>
       <c r="R39" t="n">
-        <v>754.4097657217385</v>
+        <v>651.8246759427889</v>
       </c>
       <c r="S39" t="n">
-        <v>754.4097657217385</v>
+        <v>458.4170549589193</v>
       </c>
       <c r="T39" t="n">
-        <v>537.2931182807401</v>
+        <v>458.4170549589193</v>
       </c>
       <c r="U39" t="n">
-        <v>297.66922512936</v>
+        <v>458.4170549589193</v>
       </c>
       <c r="V39" t="n">
-        <v>297.5743016702759</v>
+        <v>458.3221314998352</v>
       </c>
       <c r="W39" t="n">
-        <v>28.17573240056725</v>
+        <v>247.6837267838709</v>
       </c>
       <c r="X39" t="n">
         <v>28.17573240056725</v>
@@ -7327,37 +7327,37 @@
         <v>28.17573240056725</v>
       </c>
       <c r="I40" t="n">
-        <v>72.82716312146708</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="J40" t="n">
-        <v>72.82716312146708</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K40" t="n">
-        <v>72.82716312146708</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="L40" t="n">
-        <v>72.82716312146708</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="M40" t="n">
-        <v>72.82716312146708</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="N40" t="n">
-        <v>72.82716312146708</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="O40" t="n">
-        <v>72.82716312146708</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="P40" t="n">
-        <v>72.82716312146708</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.82716312146708</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="R40" t="n">
-        <v>109.8164644608446</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="S40" t="n">
-        <v>114.973499697056</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="T40" t="n">
         <v>131.6213389844605</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>821.1586532866073</v>
+        <v>821.1586532866075</v>
       </c>
       <c r="C41" t="n">
-        <v>710.4005212762337</v>
+        <v>710.4005212762339</v>
       </c>
       <c r="D41" t="n">
-        <v>612.201316274902</v>
+        <v>612.2013162749021</v>
       </c>
       <c r="E41" t="n">
-        <v>479.9548866075007</v>
+        <v>479.9548866075009</v>
       </c>
       <c r="F41" t="n">
-        <v>315.6677119114355</v>
+        <v>315.6677119114357</v>
       </c>
       <c r="G41" t="n">
-        <v>135.5955616213833</v>
+        <v>135.5955616213832</v>
       </c>
       <c r="H41" t="n">
         <v>28.17573240056725</v>
@@ -7409,34 +7409,34 @@
         <v>28.17573240056725</v>
       </c>
       <c r="J41" t="n">
-        <v>191.3026106395686</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="K41" t="n">
-        <v>385.4395279893312</v>
+        <v>261.15088683705</v>
       </c>
       <c r="L41" t="n">
-        <v>434.0034847036732</v>
+        <v>547.864240775392</v>
       </c>
       <c r="M41" t="n">
-        <v>755.0656007295734</v>
+        <v>868.9263568012921</v>
       </c>
       <c r="N41" t="n">
-        <v>1070.626895211273</v>
+        <v>1057.365370683955</v>
       </c>
       <c r="O41" t="n">
-        <v>1106.815395900952</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="P41" t="n">
-        <v>1331.703268597635</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="Q41" t="n">
-        <v>1331.703268597635</v>
+        <v>1331.703268597634</v>
       </c>
       <c r="R41" t="n">
         <v>1377.653598896911</v>
       </c>
       <c r="S41" t="n">
-        <v>1390.827318336289</v>
+        <v>1390.827318336288</v>
       </c>
       <c r="T41" t="n">
         <v>1408.786620028362</v>
@@ -7445,7 +7445,7 @@
         <v>1399.095053358692</v>
       </c>
       <c r="V41" t="n">
-        <v>1317.958854451375</v>
+        <v>1317.958854451376</v>
       </c>
       <c r="W41" t="n">
         <v>1219.634089668691</v>
@@ -7454,7 +7454,7 @@
         <v>1099.202001180007</v>
       </c>
       <c r="Y41" t="n">
-        <v>956.0397580208744</v>
+        <v>956.0397580208746</v>
       </c>
     </row>
     <row r="42">
@@ -7509,31 +7509,31 @@
         <v>793.6343706203805</v>
       </c>
       <c r="Q42" t="n">
-        <v>787.5094133372635</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="R42" t="n">
-        <v>787.5094133372635</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="S42" t="n">
-        <v>787.5094133372635</v>
+        <v>793.6343706203805</v>
       </c>
       <c r="T42" t="n">
-        <v>787.5094133372635</v>
+        <v>576.5177231793822</v>
       </c>
       <c r="U42" t="n">
-        <v>547.8855201858834</v>
+        <v>336.8938300280021</v>
       </c>
       <c r="V42" t="n">
-        <v>547.7905967267992</v>
+        <v>93.81411193163615</v>
       </c>
       <c r="W42" t="n">
-        <v>426.219579710806</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="X42" t="n">
-        <v>206.7115853275023</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="Y42" t="n">
-        <v>206.7115853275023</v>
+        <v>28.17573240056725</v>
       </c>
     </row>
     <row r="43">
@@ -7582,28 +7582,28 @@
         <v>28.17573240056725</v>
       </c>
       <c r="O43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="P43" t="n">
-        <v>131.6213389844606</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="Q43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="R43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="S43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="T43" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844605</v>
       </c>
       <c r="U43" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275644</v>
       </c>
       <c r="V43" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736155</v>
       </c>
       <c r="W43" t="n">
         <v>28.17573240056725</v>
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>821.1586532866072</v>
+        <v>821.1586532866069</v>
       </c>
       <c r="C44" t="n">
-        <v>710.4005212762335</v>
+        <v>710.4005212762331</v>
       </c>
       <c r="D44" t="n">
-        <v>612.2013162749018</v>
+        <v>612.2013162749014</v>
       </c>
       <c r="E44" t="n">
-        <v>479.9548866075006</v>
+        <v>479.9548866075002</v>
       </c>
       <c r="F44" t="n">
-        <v>315.6677119114354</v>
+        <v>315.6677119114349</v>
       </c>
       <c r="G44" t="n">
-        <v>135.5955616213833</v>
+        <v>135.5955616213834</v>
       </c>
       <c r="H44" t="n">
         <v>28.17573240056725</v>
@@ -7649,31 +7649,31 @@
         <v>28.17573240056725</v>
       </c>
       <c r="K44" t="n">
-        <v>261.1508868370499</v>
+        <v>261.15088683705</v>
       </c>
       <c r="L44" t="n">
-        <v>547.8642407753919</v>
+        <v>309.7148435513922</v>
       </c>
       <c r="M44" t="n">
-        <v>630.7769595772921</v>
+        <v>630.7769595772924</v>
       </c>
       <c r="N44" t="n">
-        <v>708.1888568349915</v>
+        <v>946.3382540589917</v>
       </c>
       <c r="O44" t="n">
-        <v>982.5267547486708</v>
+        <v>1183.898747331679</v>
       </c>
       <c r="P44" t="n">
-        <v>1207.414627445353</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="Q44" t="n">
-        <v>1331.703268597635</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="R44" t="n">
-        <v>1377.653598896911</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="S44" t="n">
-        <v>1390.827318336289</v>
+        <v>1408.786620028362</v>
       </c>
       <c r="T44" t="n">
         <v>1408.786620028362</v>
@@ -7682,16 +7682,16 @@
         <v>1399.095053358692</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.958854451376</v>
+        <v>1317.958854451375</v>
       </c>
       <c r="W44" t="n">
-        <v>1219.634089668691</v>
+        <v>1219.63408966869</v>
       </c>
       <c r="X44" t="n">
-        <v>1099.202001180007</v>
+        <v>1099.202001180006</v>
       </c>
       <c r="Y44" t="n">
-        <v>956.0397580208743</v>
+        <v>956.0397580208739</v>
       </c>
     </row>
     <row r="45">
@@ -7728,43 +7728,43 @@
         <v>28.17573240056725</v>
       </c>
       <c r="K45" t="n">
-        <v>67.14814918912143</v>
+        <v>67.14814918912148</v>
       </c>
       <c r="L45" t="n">
-        <v>185.8379153908915</v>
+        <v>185.8379153908916</v>
       </c>
       <c r="M45" t="n">
-        <v>369.0979385312079</v>
+        <v>369.0979385312082</v>
       </c>
       <c r="N45" t="n">
-        <v>575.6281987437105</v>
+        <v>575.6281987437108</v>
       </c>
       <c r="O45" t="n">
-        <v>708.815955516376</v>
+        <v>708.8159555163763</v>
       </c>
       <c r="P45" t="n">
-        <v>793.6343706203805</v>
+        <v>793.634370620381</v>
       </c>
       <c r="Q45" t="n">
-        <v>793.6343706203805</v>
+        <v>793.634370620381</v>
       </c>
       <c r="R45" t="n">
-        <v>793.6343706203805</v>
+        <v>657.9496332259065</v>
       </c>
       <c r="S45" t="n">
-        <v>793.6343706203805</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="T45" t="n">
-        <v>576.5177231793822</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="U45" t="n">
-        <v>336.8938300280021</v>
+        <v>540.6540197666418</v>
       </c>
       <c r="V45" t="n">
-        <v>274.0975014162978</v>
+        <v>297.5743016702759</v>
       </c>
       <c r="W45" t="n">
-        <v>247.6837267838709</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="X45" t="n">
         <v>28.17573240056725</v>
@@ -7813,34 +7813,34 @@
         <v>28.17573240056725</v>
       </c>
       <c r="M46" t="n">
-        <v>72.82716312146725</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="N46" t="n">
-        <v>72.82716312146725</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="O46" t="n">
-        <v>72.82716312146725</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="P46" t="n">
-        <v>72.82716312146725</v>
+        <v>28.17573240056725</v>
       </c>
       <c r="Q46" t="n">
-        <v>72.82716312146725</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="R46" t="n">
-        <v>109.8164644608447</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="S46" t="n">
-        <v>114.9734996970561</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="T46" t="n">
-        <v>131.6213389844606</v>
+        <v>131.6213389844607</v>
       </c>
       <c r="U46" t="n">
-        <v>83.0341454227565</v>
+        <v>83.03414542275655</v>
       </c>
       <c r="V46" t="n">
-        <v>78.43407623736158</v>
+        <v>78.43407623736161</v>
       </c>
       <c r="W46" t="n">
         <v>28.17573240056725</v>
@@ -8775,7 +8775,7 @@
         <v>129.6830587616843</v>
       </c>
       <c r="M12" t="n">
-        <v>215.6056533098496</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N12" t="n">
         <v>200.9373406025672</v>
@@ -9012,7 +9012,7 @@
         <v>129.6830587616843</v>
       </c>
       <c r="M15" t="n">
-        <v>215.6056533098496</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N15" t="n">
         <v>200.9373406025672</v>
@@ -9243,13 +9243,13 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>132.0073960199548</v>
+        <v>141.2745637540582</v>
       </c>
       <c r="L18" t="n">
-        <v>129.6830587616843</v>
+        <v>120.415891027581</v>
       </c>
       <c r="M18" t="n">
-        <v>215.6056533098496</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N18" t="n">
         <v>200.9373406025672</v>
@@ -9486,7 +9486,7 @@
         <v>129.6830587616843</v>
       </c>
       <c r="M21" t="n">
-        <v>215.6056533098496</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N21" t="n">
         <v>200.9373406025672</v>
@@ -9723,7 +9723,7 @@
         <v>129.6830587616843</v>
       </c>
       <c r="M24" t="n">
-        <v>215.6056533098496</v>
+        <v>215.6056533098495</v>
       </c>
       <c r="N24" t="n">
         <v>200.9373406025672</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>126.5887200086374</v>
+        <v>74.79147670753372</v>
       </c>
       <c r="C11" t="n">
-        <v>149.849640195897</v>
+        <v>149.8496401958969</v>
       </c>
       <c r="D11" t="n">
         <v>137.4163024569454</v>
@@ -23273,10 +23273,10 @@
         <v>218.470518292779</v>
       </c>
       <c r="H11" t="n">
-        <v>146.544720434235</v>
+        <v>47.60481394921723</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>40.19908950562706</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>21.58401993885238</v>
+        <v>33.1821737343287</v>
       </c>
       <c r="W11" t="n">
-        <v>38.60070015546725</v>
+        <v>137.540606640485</v>
       </c>
       <c r="X11" t="n">
-        <v>159.4268571094243</v>
+        <v>159.4268571094242</v>
       </c>
       <c r="Y11" t="n">
         <v>181.929710233168</v>
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>126.5887200086366</v>
+        <v>74.7914767075336</v>
       </c>
       <c r="C14" t="n">
-        <v>149.8496401958969</v>
+        <v>149.8496401958968</v>
       </c>
       <c r="D14" t="n">
         <v>137.4163024569453</v>
@@ -23507,10 +23507,10 @@
         <v>202.8433924547315</v>
       </c>
       <c r="G14" t="n">
-        <v>218.4705182927789</v>
+        <v>171.327855108864</v>
       </c>
       <c r="H14" t="n">
-        <v>146.5447204342349</v>
+        <v>146.5447204342348</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>21.58401993885229</v>
+        <v>120.52392642387</v>
       </c>
       <c r="W14" t="n">
         <v>38.60070015546717</v>
       </c>
       <c r="X14" t="n">
-        <v>159.4268571094242</v>
+        <v>159.4268571094241</v>
       </c>
       <c r="Y14" t="n">
-        <v>181.929710233168</v>
+        <v>181.9297102331679</v>
       </c>
     </row>
     <row r="15">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1422082.693136266</v>
+        <v>1422082.693136267</v>
       </c>
     </row>
     <row r="7">
@@ -26375,7 +26375,7 @@
         <v>273465.044586805</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>9.094947017729282e-11</v>
       </c>
       <c r="G3" t="n">
         <v>103592.8157439611</v>
@@ -26396,13 +26396,13 @@
         <v>103592.8157439611</v>
       </c>
       <c r="M3" t="n">
-        <v>22155.38587623639</v>
+        <v>22155.38587623635</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>66695.75573252967</v>
+        <v>66695.75573252974</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26445,10 +26445,10 @@
         <v>436469.4452056573</v>
       </c>
       <c r="L4" t="n">
-        <v>436469.4452056574</v>
+        <v>436469.4452056575</v>
       </c>
       <c r="M4" t="n">
-        <v>436027.6049897707</v>
+        <v>436027.6049897706</v>
       </c>
       <c r="N4" t="n">
         <v>436027.6049897707</v>
@@ -26457,7 +26457,7 @@
         <v>436027.6049897707</v>
       </c>
       <c r="P4" t="n">
-        <v>436027.6049897707</v>
+        <v>436027.6049897706</v>
       </c>
     </row>
     <row r="5">
@@ -26476,31 +26476,31 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>25128.77385439977</v>
+        <v>25128.77385439976</v>
       </c>
       <c r="F5" t="n">
         <v>25128.77385439977</v>
       </c>
       <c r="G5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="H5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="I5" t="n">
-        <v>36014.95438787361</v>
+        <v>36014.9543878736</v>
       </c>
       <c r="J5" t="n">
         <v>47593.60131544279</v>
       </c>
       <c r="K5" t="n">
-        <v>47593.60131544279</v>
+        <v>47593.60131544278</v>
       </c>
       <c r="L5" t="n">
         <v>47593.60131544279</v>
       </c>
       <c r="M5" t="n">
-        <v>43906.28142019035</v>
+        <v>43906.28142019036</v>
       </c>
       <c r="N5" t="n">
         <v>43906.28142019035</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-506169.7604166553</v>
+        <v>-506174.2268008605</v>
       </c>
       <c r="C6" t="n">
-        <v>-506169.7604166553</v>
+        <v>-506174.2268008605</v>
       </c>
       <c r="D6" t="n">
-        <v>-506169.7604166553</v>
+        <v>-506174.2268008605</v>
       </c>
       <c r="E6" t="n">
-        <v>-665193.7100977965</v>
+        <v>-665503.0312473917</v>
       </c>
       <c r="F6" t="n">
-        <v>-391728.6655109916</v>
+        <v>-392037.9866605868</v>
       </c>
       <c r="G6" t="n">
-        <v>-576726.228301643</v>
+        <v>-576726.2283016429</v>
       </c>
       <c r="H6" t="n">
         <v>-473133.4125576818</v>
@@ -26549,10 +26549,10 @@
         <v>-484063.0465211001</v>
       </c>
       <c r="L6" t="n">
-        <v>-587655.8622650614</v>
+        <v>-587655.8622650615</v>
       </c>
       <c r="M6" t="n">
-        <v>-502089.2722861974</v>
+        <v>-502089.2722861973</v>
       </c>
       <c r="N6" t="n">
         <v>-479933.886409961</v>
@@ -26561,7 +26561,7 @@
         <v>-546629.6421424907</v>
       </c>
       <c r="P6" t="n">
-        <v>-479933.886409961</v>
+        <v>-479933.8864099609</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F2" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G2" t="n">
         <v>329.8468768652333</v>
@@ -26713,7 +26713,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="L2" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="M2" t="n">
         <v>240.554946690909</v>
@@ -26722,7 +26722,7 @@
         <v>240.554946690909</v>
       </c>
       <c r="O2" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="P2" t="n">
         <v>240.5549466909089</v>
@@ -26777,7 +26777,7 @@
         <v>104.1060083670286</v>
       </c>
       <c r="P3" t="n">
-        <v>104.1060083670286</v>
+        <v>104.1060083670288</v>
       </c>
     </row>
     <row r="4">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="F4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="G4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="H4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="I4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="J4" t="n">
         <v>451.1365614921083</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>129.4910196799514</v>
+        <v>129.4910196799513</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.36969466566211</v>
+        <v>83.36969466566217</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>129.4910196799514</v>
       </c>
       <c r="M2" t="n">
-        <v>27.69423234529549</v>
+        <v>27.69423234529543</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566208</v>
+        <v>83.36969466566217</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>129.4910196799514</v>
+        <v>129.4910196799513</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>83.36969466566211</v>
+        <v>83.36969466566217</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="C11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="D11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="E11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="F11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="G11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="H11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="I11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="J11" t="n">
-        <v>75.78032220706916</v>
+        <v>75.78032220706919</v>
       </c>
       <c r="K11" t="n">
-        <v>5.226507866178949</v>
+        <v>8.344913995512281</v>
       </c>
       <c r="L11" t="n">
-        <v>49.88540475335913</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>15.1896854729973</v>
+        <v>15.18968547299728</v>
       </c>
       <c r="N11" t="n">
-        <v>20.74607087118008</v>
+        <v>20.74607087118007</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>65.56838718151448</v>
+        <v>112.3353858055402</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.43774142365251</v>
+        <v>88.43774142365254</v>
       </c>
       <c r="R11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="S11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="T11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y11" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J12" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.063707710285861</v>
+        <v>6.063707710285875</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3278900205298</v>
+        <v>35.38798353551206</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4735447740309</v>
+        <v>137.1273394059533</v>
       </c>
       <c r="T12" t="n">
-        <v>116.0055744815706</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U12" t="n">
-        <v>138.2877477348485</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V12" t="n">
-        <v>160.8969573930431</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W12" t="n">
-        <v>200.3558571852818</v>
+        <v>167.7646770919939</v>
       </c>
       <c r="X12" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y12" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="13">
@@ -28275,46 +28275,46 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L13" t="n">
-        <v>130.3049547715883</v>
+        <v>31.36504828657058</v>
       </c>
       <c r="M13" t="n">
-        <v>24.38732889638567</v>
+        <v>123.3272353814034</v>
       </c>
       <c r="N13" t="n">
         <v>114.6502518757157</v>
       </c>
       <c r="O13" t="n">
-        <v>36.73089156368813</v>
+        <v>94.38513356424555</v>
       </c>
       <c r="P13" t="n">
-        <v>115.4928041537575</v>
+        <v>57.83856215320003</v>
       </c>
       <c r="Q13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="R13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="S13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="T13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="U13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="V13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="W13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="X13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
       <c r="Y13" t="n">
-        <v>200.3558571852818</v>
+        <v>200.3558571852819</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="C14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="D14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="E14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="F14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="G14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="H14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="I14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="J14" t="n">
-        <v>75.78032220706916</v>
+        <v>174.7202286920869</v>
       </c>
       <c r="K14" t="n">
-        <v>65.64502596737864</v>
+        <v>8.34491399551213</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>15.1896854729973</v>
+        <v>15.18968547299728</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>20.74607087118007</v>
       </c>
       <c r="O14" t="n">
-        <v>62.38586538433142</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.39547932052248</v>
+        <v>13.39547932052251</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43774142365251</v>
+        <v>88.43774142365254</v>
       </c>
       <c r="R14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y14" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="15">
@@ -28427,7 +28427,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J15" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,25 +28454,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4735447740309</v>
+        <v>92.53363828901314</v>
       </c>
       <c r="T15" t="n">
-        <v>116.0055744815706</v>
+        <v>178.1290221890991</v>
       </c>
       <c r="U15" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V15" t="n">
-        <v>200.3558571852819</v>
+        <v>141.7090144303845</v>
       </c>
       <c r="W15" t="n">
-        <v>167.7646770919938</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X15" t="n">
-        <v>137.4837357461834</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y15" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="16">
@@ -28500,58 +28500,58 @@
         <v>168.6954829817093</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7773474488177</v>
+        <v>200.355857185282</v>
       </c>
       <c r="I16" t="n">
         <v>164.6938248359117</v>
       </c>
       <c r="J16" t="n">
-        <v>119.8654670400798</v>
+        <v>200.355857185282</v>
       </c>
       <c r="K16" t="n">
-        <v>165.3550587809062</v>
+        <v>66.41515229588839</v>
       </c>
       <c r="L16" t="n">
-        <v>31.36504828657057</v>
+        <v>31.36504828657058</v>
       </c>
       <c r="M16" t="n">
-        <v>123.3272353814035</v>
+        <v>24.38732889638569</v>
       </c>
       <c r="N16" t="n">
-        <v>48.00668039579924</v>
+        <v>114.6502518757157</v>
       </c>
       <c r="O16" t="n">
-        <v>135.6707980487059</v>
+        <v>52.89823317214038</v>
       </c>
       <c r="P16" t="n">
-        <v>57.83856215320002</v>
+        <v>156.7784686382178</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7738576957197</v>
       </c>
       <c r="R16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="S16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="T16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="U16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="V16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="W16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="X16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
       <c r="Y16" t="n">
-        <v>200.3558571852819</v>
+        <v>200.355857185282</v>
       </c>
     </row>
     <row r="17">
@@ -28585,10 +28585,10 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J17" t="n">
-        <v>75.78032220706916</v>
+        <v>75.78032220706919</v>
       </c>
       <c r="K17" t="n">
-        <v>41.52896262775518</v>
+        <v>5.226507866178977</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.39547932052248</v>
+        <v>13.39547932052251</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.43774142365251</v>
+        <v>187.3776479086703</v>
       </c>
       <c r="R17" t="n">
-        <v>194.140471641135</v>
+        <v>194.1404716411351</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2481593784061</v>
+        <v>263.5506141399823</v>
       </c>
       <c r="T17" t="n">
-        <v>321.3541443960544</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U17" t="n">
         <v>250.1495976938827</v>
@@ -28664,7 +28664,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J18" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.063707710285875</v>
       </c>
       <c r="R18" t="n">
-        <v>35.38798353551201</v>
+        <v>35.38798353551206</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4735447740309</v>
+        <v>92.53363828901314</v>
       </c>
       <c r="T18" t="n">
-        <v>133.8629190448706</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U18" t="n">
-        <v>138.2877477348485</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V18" t="n">
         <v>141.7090144303845</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>136.238016502022</v>
       </c>
     </row>
     <row r="19">
@@ -28749,19 +28749,19 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L19" t="n">
-        <v>31.36504828657057</v>
+        <v>31.36504828657058</v>
       </c>
       <c r="M19" t="n">
-        <v>24.38732889638567</v>
+        <v>24.38732889638569</v>
       </c>
       <c r="N19" t="n">
-        <v>15.71034539069795</v>
+        <v>15.71034539069797</v>
       </c>
       <c r="O19" t="n">
-        <v>36.73089156368813</v>
+        <v>36.73089156368814</v>
       </c>
       <c r="P19" t="n">
-        <v>57.83856215320002</v>
+        <v>57.83856215320003</v>
       </c>
       <c r="Q19" t="n">
         <v>126.7738576957197</v>
@@ -28822,10 +28822,10 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J20" t="n">
-        <v>75.78032220706916</v>
+        <v>75.78032220706919</v>
       </c>
       <c r="K20" t="n">
-        <v>5.226507866178949</v>
+        <v>5.226507866178977</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,25 +28834,25 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>20.74607087118008</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>62.38586538433141</v>
       </c>
       <c r="P20" t="n">
-        <v>13.39547932052248</v>
+        <v>13.39547932052251</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.43774142365251</v>
+        <v>88.43774142365254</v>
       </c>
       <c r="R20" t="n">
-        <v>194.140471641135</v>
+        <v>194.1404716411351</v>
       </c>
       <c r="S20" t="n">
-        <v>326.1880658634238</v>
+        <v>309.0717484967499</v>
       </c>
       <c r="T20" t="n">
-        <v>246.937715057514</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U20" t="n">
         <v>250.1495976938827</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>60.23240859156081</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28901,7 +28901,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J21" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>134.3278900205298</v>
       </c>
       <c r="S21" t="n">
-        <v>92.53363828901308</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T21" t="n">
-        <v>133.8629190448706</v>
+        <v>133.8629190448707</v>
       </c>
       <c r="U21" t="n">
-        <v>138.2877477348485</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>167.7646770919938</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>118.3730079544529</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>124.4443796490079</v>
       </c>
     </row>
     <row r="22">
@@ -28986,19 +28986,19 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L22" t="n">
-        <v>31.36504828657057</v>
+        <v>31.36504828657058</v>
       </c>
       <c r="M22" t="n">
-        <v>24.38732889638567</v>
+        <v>24.38732889638569</v>
       </c>
       <c r="N22" t="n">
-        <v>15.71034539069795</v>
+        <v>15.71034539069797</v>
       </c>
       <c r="O22" t="n">
-        <v>36.73089156368813</v>
+        <v>36.73089156368814</v>
       </c>
       <c r="P22" t="n">
-        <v>57.83856215320002</v>
+        <v>57.83856215320003</v>
       </c>
       <c r="Q22" t="n">
         <v>126.7738576957197</v>
@@ -29059,10 +29059,10 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J23" t="n">
-        <v>75.78032220706916</v>
+        <v>75.78032220706919</v>
       </c>
       <c r="K23" t="n">
-        <v>66.30402611334276</v>
+        <v>5.226507866178977</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,19 +29071,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>20.74607087118008</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>62.38586538433142</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.39547932052248</v>
+        <v>58.66502733817997</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.43774142365251</v>
+        <v>88.43774142365254</v>
       </c>
       <c r="R23" t="n">
-        <v>194.140471641135</v>
+        <v>293.0803781261528</v>
       </c>
       <c r="S23" t="n">
         <v>227.2481593784061</v>
@@ -29138,7 +29138,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J24" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>35.38798353551201</v>
+        <v>35.38798353551206</v>
       </c>
       <c r="S24" t="n">
         <v>191.4735447740309</v>
       </c>
       <c r="T24" t="n">
-        <v>116.0055744815706</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U24" t="n">
-        <v>138.2877477348485</v>
+        <v>138.2877477348486</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>167.7646770919939</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>136.2303525177529</v>
       </c>
       <c r="Y24" t="n">
-        <v>136.238016502022</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29223,19 +29223,19 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L25" t="n">
-        <v>31.36504828657057</v>
+        <v>31.36504828657058</v>
       </c>
       <c r="M25" t="n">
-        <v>24.38732889638567</v>
+        <v>24.38732889638569</v>
       </c>
       <c r="N25" t="n">
-        <v>15.71034539069795</v>
+        <v>15.71034539069797</v>
       </c>
       <c r="O25" t="n">
-        <v>36.73089156368813</v>
+        <v>36.73089156368814</v>
       </c>
       <c r="P25" t="n">
-        <v>57.83856215320002</v>
+        <v>57.83856215320003</v>
       </c>
       <c r="Q25" t="n">
         <v>126.7738576957197</v>
@@ -29305,10 +29305,10 @@
         <v>212.8607143456136</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8607143456128</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8607143456136</v>
+        <v>212.8607143456127</v>
       </c>
       <c r="O26" t="n">
         <v>212.8607143456136</v>
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>97.49951071589432</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J27" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,22 +29399,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>108.1190231607766</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T27" t="n">
         <v>212.8607143456136</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8607143456136</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8607143456136</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>212.8607143456136</v>
@@ -29460,25 +29460,25 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L28" t="n">
-        <v>31.36504828657057</v>
+        <v>71.12569452835402</v>
       </c>
       <c r="M28" t="n">
-        <v>24.38732889638567</v>
+        <v>24.38732889638569</v>
       </c>
       <c r="N28" t="n">
-        <v>87.93051009444322</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="O28" t="n">
-        <v>36.73089156368813</v>
+        <v>36.73089156368814</v>
       </c>
       <c r="P28" t="n">
-        <v>212.8607143456136</v>
+        <v>57.83856215320003</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7738576957197</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8607143456136</v>
+        <v>203.1920160450731</v>
       </c>
       <c r="S28" t="n">
         <v>212.8607143456136</v>
@@ -29545,7 +29545,7 @@
         <v>212.8607143456135</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8607143456134</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="O29" t="n">
         <v>212.8607143456135</v>
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>161.3092846646132</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J30" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469029</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4735447740309</v>
       </c>
       <c r="T30" t="n">
         <v>212.8607143456135</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.8607143456135</v>
-      </c>
-      <c r="W30" t="n">
-        <v>212.8607143456135</v>
-      </c>
-      <c r="X30" t="n">
-        <v>122.8420735371423</v>
       </c>
       <c r="Y30" t="n">
         <v>212.8607143456135</v>
@@ -29697,22 +29697,22 @@
         <v>66.41515229588839</v>
       </c>
       <c r="L31" t="n">
-        <v>31.36504828657057</v>
+        <v>31.36504828657058</v>
       </c>
       <c r="M31" t="n">
-        <v>24.38732889638567</v>
+        <v>24.38732889638569</v>
       </c>
       <c r="N31" t="n">
-        <v>166.534503937504</v>
+        <v>15.71034539069797</v>
       </c>
       <c r="O31" t="n">
-        <v>36.73089156368813</v>
+        <v>36.73089156368814</v>
       </c>
       <c r="P31" t="n">
-        <v>57.83856215320002</v>
+        <v>212.8607143456135</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8607143456135</v>
+        <v>208.6627207000061</v>
       </c>
       <c r="R31" t="n">
         <v>203.1920160450731</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456126</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="33">
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29873,28 +29873,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3278900205298</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8607143456135</v>
+        <v>201.3748978622256</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>97.49951071589479</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8607143456135</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="34">
@@ -29940,13 +29940,13 @@
         <v>24.38732889638567</v>
       </c>
       <c r="N34" t="n">
-        <v>97.59920839498433</v>
+        <v>76.49153780547157</v>
       </c>
       <c r="O34" t="n">
-        <v>36.73089156368813</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="P34" t="n">
-        <v>212.8607143456135</v>
+        <v>57.83856215320002</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7738576957197</v>
@@ -29955,25 +29955,25 @@
         <v>203.1920160450731</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8607143456135</v>
+        <v>212.8607143456136</v>
       </c>
     </row>
     <row r="35">
@@ -30007,19 +30007,19 @@
         <v>240.554946690909</v>
       </c>
       <c r="J35" t="n">
-        <v>240.554946690909</v>
+        <v>75.78032220706916</v>
       </c>
       <c r="K35" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="L35" t="n">
-        <v>201.3244041790701</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>51.28884784689345</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="O35" t="n">
         <v>240.554946690909</v>
@@ -30028,16 +30028,16 @@
         <v>240.554946690909</v>
       </c>
       <c r="Q35" t="n">
-        <v>88.43774142365251</v>
+        <v>240.554946690909</v>
       </c>
       <c r="R35" t="n">
-        <v>240.554946690909</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S35" t="n">
-        <v>240.554946690909</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T35" t="n">
-        <v>240.554946690909</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U35" t="n">
         <v>240.554946690909</v>
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>123.3967868197873</v>
       </c>
       <c r="G36" t="n">
         <v>148.7382922638873</v>
@@ -30113,13 +30113,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>52.47783696428206</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V36" t="n">
         <v>240.554946690909</v>
@@ -30174,13 +30174,13 @@
         <v>31.36504828657057</v>
       </c>
       <c r="M37" t="n">
-        <v>24.38732889638567</v>
+        <v>91.51490995145187</v>
       </c>
       <c r="N37" t="n">
         <v>15.71034539069795</v>
       </c>
       <c r="O37" t="n">
-        <v>98.64934611753091</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P37" t="n">
         <v>57.83856215320002</v>
@@ -30192,7 +30192,7 @@
         <v>240.554946690909</v>
       </c>
       <c r="S37" t="n">
-        <v>240.554946690909</v>
+        <v>235.3458201896853</v>
       </c>
       <c r="T37" t="n">
         <v>223.7389474107024</v>
@@ -30253,10 +30253,10 @@
         <v>240.554946690909</v>
       </c>
       <c r="M38" t="n">
+        <v>209.4046836253939</v>
+      </c>
+      <c r="N38" t="n">
         <v>240.554946690909</v>
-      </c>
-      <c r="N38" t="n">
-        <v>75.42818713800997</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30265,7 +30265,7 @@
         <v>240.554946690909</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.554946690909</v>
+        <v>88.43774142365251</v>
       </c>
       <c r="R38" t="n">
         <v>240.554946690909</v>
@@ -30274,7 +30274,7 @@
         <v>227.2481593784061</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4142379110366</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U38" t="n">
         <v>240.554946690909</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.063707710285861</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>95.49553117087417</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4735447740309</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9454809665884</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V39" t="n">
         <v>240.554946690909</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>58.17256290820697</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30399,7 +30399,7 @@
         <v>165.7773474488177</v>
       </c>
       <c r="I40" t="n">
-        <v>209.7962801095479</v>
+        <v>164.6938248359117</v>
       </c>
       <c r="J40" t="n">
         <v>119.8654670400798</v>
@@ -30417,7 +30417,7 @@
         <v>15.71034539069795</v>
       </c>
       <c r="O40" t="n">
-        <v>36.73089156368813</v>
+        <v>141.2214032645904</v>
       </c>
       <c r="P40" t="n">
         <v>57.83856215320002</v>
@@ -30426,13 +30426,13 @@
         <v>126.7738576957197</v>
       </c>
       <c r="R40" t="n">
-        <v>240.554946690909</v>
+        <v>203.1920160450731</v>
       </c>
       <c r="S40" t="n">
-        <v>240.554946690909</v>
+        <v>235.3458201896853</v>
       </c>
       <c r="T40" t="n">
-        <v>240.554946690909</v>
+        <v>223.7389474107024</v>
       </c>
       <c r="U40" t="n">
         <v>240.554946690909</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="C41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="D41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="E41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="F41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="G41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="H41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="I41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="J41" t="n">
-        <v>240.5549466909089</v>
+        <v>75.78032220706916</v>
       </c>
       <c r="K41" t="n">
-        <v>201.3244041790704</v>
+        <v>240.554946690909</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="M41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="N41" t="n">
-        <v>240.5549466909089</v>
+        <v>112.1486026514784</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>240.554946690909</v>
       </c>
       <c r="P41" t="n">
-        <v>240.5549466909089</v>
+        <v>13.39547932052248</v>
       </c>
       <c r="Q41" t="n">
         <v>88.43774142365251</v>
       </c>
       <c r="R41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="S41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="T41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="U41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="Y41" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.063707710285861</v>
       </c>
       <c r="R42" t="n">
         <v>134.3278900205298</v>
@@ -30590,19 +30590,19 @@
         <v>191.4735447740309</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9454809665884</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>146.3492767311783</v>
+        <v>201.7225878412534</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30654,13 +30654,13 @@
         <v>15.71034539069795</v>
       </c>
       <c r="O43" t="n">
-        <v>141.2214032645905</v>
+        <v>36.73089156368813</v>
       </c>
       <c r="P43" t="n">
         <v>57.83856215320002</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7738576957197</v>
+        <v>231.2643693966219</v>
       </c>
       <c r="R43" t="n">
         <v>203.1920160450731</v>
@@ -30672,13 +30672,13 @@
         <v>223.7389474107024</v>
       </c>
       <c r="U43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="V43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="W43" t="n">
-        <v>240.5549466909089</v>
+        <v>240.554946690909</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30718,37 +30718,37 @@
         <v>240.5549466909089</v>
       </c>
       <c r="J44" t="n">
-        <v>75.78032220706916</v>
+        <v>75.7803222070691</v>
       </c>
       <c r="K44" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
         <v>240.5549466909089</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>240.5549466909089</v>
       </c>
       <c r="O44" t="n">
-        <v>240.5549466909089</v>
+        <v>203.4060531141497</v>
       </c>
       <c r="P44" t="n">
         <v>240.5549466909089</v>
       </c>
       <c r="Q44" t="n">
-        <v>213.9818233956539</v>
+        <v>88.43774142365244</v>
       </c>
       <c r="R44" t="n">
-        <v>240.5549466909089</v>
+        <v>194.140471641135</v>
       </c>
       <c r="S44" t="n">
-        <v>240.5549466909089</v>
+        <v>227.2481593784061</v>
       </c>
       <c r="T44" t="n">
-        <v>240.5549466909089</v>
+        <v>222.4142379110366</v>
       </c>
       <c r="U44" t="n">
         <v>240.5549466909089</v>
@@ -30797,7 +30797,7 @@
         <v>107.1460820356304</v>
       </c>
       <c r="J45" t="n">
-        <v>51.87880489469028</v>
+        <v>51.87880489469025</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.063707710285861</v>
+        <v>6.063707710285811</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3278900205298</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4735447740309</v>
+        <v>75.35088744935879</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9454809665883</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2276542198663</v>
       </c>
       <c r="V45" t="n">
-        <v>178.480555589815</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>240.5549466909089</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30879,34 +30879,34 @@
         <v>119.8654670400798</v>
       </c>
       <c r="K46" t="n">
-        <v>66.41515229588839</v>
+        <v>66.41515229588835</v>
       </c>
       <c r="L46" t="n">
-        <v>31.36504828657057</v>
+        <v>31.36504828657052</v>
       </c>
       <c r="M46" t="n">
-        <v>69.48978417002205</v>
+        <v>24.38732889638562</v>
       </c>
       <c r="N46" t="n">
-        <v>15.71034539069795</v>
+        <v>15.71034539069791</v>
       </c>
       <c r="O46" t="n">
-        <v>36.73089156368813</v>
+        <v>36.73089156368808</v>
       </c>
       <c r="P46" t="n">
-        <v>57.83856215320002</v>
+        <v>57.83856215319997</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7738576957197</v>
+        <v>231.2643693966221</v>
       </c>
       <c r="R46" t="n">
-        <v>240.5549466909089</v>
+        <v>203.1920160450731</v>
       </c>
       <c r="S46" t="n">
-        <v>240.5549466909089</v>
+        <v>235.3458201896853</v>
       </c>
       <c r="T46" t="n">
-        <v>240.5549466909089</v>
+        <v>223.7389474107024</v>
       </c>
       <c r="U46" t="n">
         <v>240.5549466909089</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508682</v>
       </c>
       <c r="H11" t="n">
-        <v>4.286133299251583</v>
+        <v>4.28613329925158</v>
       </c>
       <c r="I11" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957736</v>
       </c>
       <c r="J11" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398428</v>
       </c>
       <c r="K11" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258255</v>
       </c>
       <c r="L11" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663512</v>
       </c>
       <c r="M11" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593769</v>
       </c>
       <c r="N11" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271286</v>
       </c>
       <c r="O11" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688515</v>
       </c>
       <c r="P11" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578558</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.19508627555763</v>
+        <v>45.1950862755576</v>
       </c>
       <c r="R11" t="n">
-        <v>26.28964441441351</v>
+        <v>26.2896444144135</v>
       </c>
       <c r="S11" t="n">
-        <v>9.536947399652924</v>
+        <v>9.53694739965292</v>
       </c>
       <c r="T11" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951427</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.03348132932406945</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.223926131204552</v>
       </c>
       <c r="H12" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001858</v>
       </c>
       <c r="I12" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086549</v>
       </c>
       <c r="J12" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805814</v>
       </c>
       <c r="K12" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876312</v>
       </c>
       <c r="L12" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386556</v>
       </c>
       <c r="M12" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003055</v>
       </c>
       <c r="N12" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411723</v>
       </c>
       <c r="O12" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005847</v>
       </c>
       <c r="P12" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852537</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183018</v>
       </c>
       <c r="R12" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777035</v>
       </c>
       <c r="S12" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909109</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990491</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608895</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356252</v>
       </c>
       <c r="H13" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622196</v>
       </c>
       <c r="I13" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067714</v>
       </c>
       <c r="J13" t="n">
-        <v>13.27266273885871</v>
+        <v>13.2726627388587</v>
       </c>
       <c r="K13" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082991</v>
       </c>
       <c r="L13" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761287</v>
       </c>
       <c r="M13" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037169</v>
       </c>
       <c r="N13" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167529</v>
       </c>
       <c r="O13" t="n">
-        <v>26.53508554246822</v>
+        <v>26.5350855424682</v>
       </c>
       <c r="P13" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926143</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342131</v>
       </c>
       <c r="R13" t="n">
-        <v>8.441119957103661</v>
+        <v>8.441119957103655</v>
       </c>
       <c r="S13" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124486</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885804</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508682</v>
       </c>
       <c r="H14" t="n">
-        <v>4.286133299251583</v>
+        <v>4.28613329925158</v>
       </c>
       <c r="I14" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957736</v>
       </c>
       <c r="J14" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398428</v>
       </c>
       <c r="K14" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258255</v>
       </c>
       <c r="L14" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663512</v>
       </c>
       <c r="M14" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593769</v>
       </c>
       <c r="N14" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271286</v>
       </c>
       <c r="O14" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688515</v>
       </c>
       <c r="P14" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578558</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.19508627555763</v>
+        <v>45.1950862755576</v>
       </c>
       <c r="R14" t="n">
-        <v>26.28964441441351</v>
+        <v>26.2896444144135</v>
       </c>
       <c r="S14" t="n">
-        <v>9.536947399652924</v>
+        <v>9.53694739965292</v>
       </c>
       <c r="T14" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951427</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.03348132932406945</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.223926131204552</v>
       </c>
       <c r="H15" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001858</v>
       </c>
       <c r="I15" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086549</v>
       </c>
       <c r="J15" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805814</v>
       </c>
       <c r="K15" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876312</v>
       </c>
       <c r="L15" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386556</v>
       </c>
       <c r="M15" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003055</v>
       </c>
       <c r="N15" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411723</v>
       </c>
       <c r="O15" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005847</v>
       </c>
       <c r="P15" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852537</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183018</v>
       </c>
       <c r="R15" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777035</v>
       </c>
       <c r="S15" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909109</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990491</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608895</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356252</v>
       </c>
       <c r="H16" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622196</v>
       </c>
       <c r="I16" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067714</v>
       </c>
       <c r="J16" t="n">
-        <v>13.27266273885871</v>
+        <v>13.2726627388587</v>
       </c>
       <c r="K16" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082991</v>
       </c>
       <c r="L16" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761287</v>
       </c>
       <c r="M16" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037169</v>
       </c>
       <c r="N16" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167529</v>
       </c>
       <c r="O16" t="n">
-        <v>26.53508554246822</v>
+        <v>26.5350855424682</v>
       </c>
       <c r="P16" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926143</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342131</v>
       </c>
       <c r="R16" t="n">
-        <v>8.441119957103661</v>
+        <v>8.441119957103655</v>
       </c>
       <c r="S16" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124486</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885804</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508682</v>
       </c>
       <c r="H17" t="n">
-        <v>4.286133299251583</v>
+        <v>4.28613329925158</v>
       </c>
       <c r="I17" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957736</v>
       </c>
       <c r="J17" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398428</v>
       </c>
       <c r="K17" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258255</v>
       </c>
       <c r="L17" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663512</v>
       </c>
       <c r="M17" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593769</v>
       </c>
       <c r="N17" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271286</v>
       </c>
       <c r="O17" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688515</v>
       </c>
       <c r="P17" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578558</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.19508627555763</v>
+        <v>45.1950862755576</v>
       </c>
       <c r="R17" t="n">
-        <v>26.28964441441351</v>
+        <v>26.2896444144135</v>
       </c>
       <c r="S17" t="n">
-        <v>9.536947399652924</v>
+        <v>9.53694739965292</v>
       </c>
       <c r="T17" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951427</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.03348132932406945</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.223926131204552</v>
       </c>
       <c r="H18" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001858</v>
       </c>
       <c r="I18" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086549</v>
       </c>
       <c r="J18" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805814</v>
       </c>
       <c r="K18" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876312</v>
       </c>
       <c r="L18" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386556</v>
       </c>
       <c r="M18" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003055</v>
       </c>
       <c r="N18" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411723</v>
       </c>
       <c r="O18" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005847</v>
       </c>
       <c r="P18" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852537</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183018</v>
       </c>
       <c r="R18" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777035</v>
       </c>
       <c r="S18" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909109</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990491</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608895</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356252</v>
       </c>
       <c r="H19" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622196</v>
       </c>
       <c r="I19" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067714</v>
       </c>
       <c r="J19" t="n">
-        <v>13.27266273885871</v>
+        <v>13.2726627388587</v>
       </c>
       <c r="K19" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082991</v>
       </c>
       <c r="L19" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761287</v>
       </c>
       <c r="M19" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037169</v>
       </c>
       <c r="N19" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167529</v>
       </c>
       <c r="O19" t="n">
-        <v>26.53508554246822</v>
+        <v>26.5350855424682</v>
       </c>
       <c r="P19" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926143</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342131</v>
       </c>
       <c r="R19" t="n">
-        <v>8.441119957103661</v>
+        <v>8.441119957103655</v>
       </c>
       <c r="S19" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124486</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885804</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508682</v>
       </c>
       <c r="H20" t="n">
-        <v>4.286133299251583</v>
+        <v>4.28613329925158</v>
       </c>
       <c r="I20" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957736</v>
       </c>
       <c r="J20" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398428</v>
       </c>
       <c r="K20" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258255</v>
       </c>
       <c r="L20" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663512</v>
       </c>
       <c r="M20" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593769</v>
       </c>
       <c r="N20" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271286</v>
       </c>
       <c r="O20" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688515</v>
       </c>
       <c r="P20" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578558</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.19508627555763</v>
+        <v>45.1950862755576</v>
       </c>
       <c r="R20" t="n">
-        <v>26.28964441441351</v>
+        <v>26.2896444144135</v>
       </c>
       <c r="S20" t="n">
-        <v>9.536947399652924</v>
+        <v>9.53694739965292</v>
       </c>
       <c r="T20" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951427</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.03348132932406945</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.223926131204552</v>
       </c>
       <c r="H21" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001858</v>
       </c>
       <c r="I21" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086549</v>
       </c>
       <c r="J21" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805814</v>
       </c>
       <c r="K21" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876312</v>
       </c>
       <c r="L21" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386556</v>
       </c>
       <c r="M21" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003055</v>
       </c>
       <c r="N21" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411723</v>
       </c>
       <c r="O21" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005847</v>
       </c>
       <c r="P21" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852537</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183018</v>
       </c>
       <c r="R21" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777035</v>
       </c>
       <c r="S21" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909109</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990491</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608895</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356252</v>
       </c>
       <c r="H22" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622196</v>
       </c>
       <c r="I22" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067714</v>
       </c>
       <c r="J22" t="n">
-        <v>13.27266273885871</v>
+        <v>13.2726627388587</v>
       </c>
       <c r="K22" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082991</v>
       </c>
       <c r="L22" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761287</v>
       </c>
       <c r="M22" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037169</v>
       </c>
       <c r="N22" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167529</v>
       </c>
       <c r="O22" t="n">
-        <v>26.53508554246822</v>
+        <v>26.5350855424682</v>
       </c>
       <c r="P22" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926143</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342131</v>
       </c>
       <c r="R22" t="n">
-        <v>8.441119957103661</v>
+        <v>8.441119957103655</v>
       </c>
       <c r="S22" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124486</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885804</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508682</v>
       </c>
       <c r="H23" t="n">
-        <v>4.286133299251583</v>
+        <v>4.28613329925158</v>
       </c>
       <c r="I23" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957736</v>
       </c>
       <c r="J23" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398428</v>
       </c>
       <c r="K23" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258255</v>
       </c>
       <c r="L23" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663512</v>
       </c>
       <c r="M23" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593769</v>
       </c>
       <c r="N23" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271286</v>
       </c>
       <c r="O23" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688515</v>
       </c>
       <c r="P23" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578558</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.19508627555763</v>
+        <v>45.1950862755576</v>
       </c>
       <c r="R23" t="n">
-        <v>26.28964441441351</v>
+        <v>26.2896444144135</v>
       </c>
       <c r="S23" t="n">
-        <v>9.536947399652924</v>
+        <v>9.53694739965292</v>
       </c>
       <c r="T23" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951427</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.03348132932406945</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.223926131204552</v>
       </c>
       <c r="H24" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001858</v>
       </c>
       <c r="I24" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086549</v>
       </c>
       <c r="J24" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805814</v>
       </c>
       <c r="K24" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876312</v>
       </c>
       <c r="L24" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386556</v>
       </c>
       <c r="M24" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003055</v>
       </c>
       <c r="N24" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411723</v>
       </c>
       <c r="O24" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005847</v>
       </c>
       <c r="P24" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852537</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183018</v>
       </c>
       <c r="R24" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777035</v>
       </c>
       <c r="S24" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909109</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990491</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608895</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356252</v>
       </c>
       <c r="H25" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622196</v>
       </c>
       <c r="I25" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067714</v>
       </c>
       <c r="J25" t="n">
-        <v>13.27266273885871</v>
+        <v>13.2726627388587</v>
       </c>
       <c r="K25" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082991</v>
       </c>
       <c r="L25" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761287</v>
       </c>
       <c r="M25" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037169</v>
       </c>
       <c r="N25" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167529</v>
       </c>
       <c r="O25" t="n">
-        <v>26.53508554246822</v>
+        <v>26.5350855424682</v>
       </c>
       <c r="P25" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926143</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342131</v>
       </c>
       <c r="R25" t="n">
-        <v>8.441119957103661</v>
+        <v>8.441119957103655</v>
       </c>
       <c r="S25" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124486</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885804</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508682</v>
       </c>
       <c r="H26" t="n">
-        <v>4.286133299251583</v>
+        <v>4.28613329925158</v>
       </c>
       <c r="I26" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957736</v>
       </c>
       <c r="J26" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398428</v>
       </c>
       <c r="K26" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258255</v>
       </c>
       <c r="L26" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663512</v>
       </c>
       <c r="M26" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593769</v>
       </c>
       <c r="N26" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271286</v>
       </c>
       <c r="O26" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688515</v>
       </c>
       <c r="P26" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578558</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.19508627555763</v>
+        <v>45.1950862755576</v>
       </c>
       <c r="R26" t="n">
-        <v>26.28964441441351</v>
+        <v>26.2896444144135</v>
       </c>
       <c r="S26" t="n">
-        <v>9.536947399652924</v>
+        <v>9.53694739965292</v>
       </c>
       <c r="T26" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951427</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.03348132932406945</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.223926131204552</v>
       </c>
       <c r="H27" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001858</v>
       </c>
       <c r="I27" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086549</v>
       </c>
       <c r="J27" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805814</v>
       </c>
       <c r="K27" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876312</v>
       </c>
       <c r="L27" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386556</v>
       </c>
       <c r="M27" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003055</v>
       </c>
       <c r="N27" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411723</v>
       </c>
       <c r="O27" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005847</v>
       </c>
       <c r="P27" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852537</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183018</v>
       </c>
       <c r="R27" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777035</v>
       </c>
       <c r="S27" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909109</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990491</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608895</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356252</v>
       </c>
       <c r="H28" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622196</v>
       </c>
       <c r="I28" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067714</v>
       </c>
       <c r="J28" t="n">
-        <v>13.27266273885871</v>
+        <v>13.2726627388587</v>
       </c>
       <c r="K28" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082991</v>
       </c>
       <c r="L28" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761287</v>
       </c>
       <c r="M28" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037169</v>
       </c>
       <c r="N28" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167529</v>
       </c>
       <c r="O28" t="n">
-        <v>26.53508554246822</v>
+        <v>26.5350855424682</v>
       </c>
       <c r="P28" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926143</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342131</v>
       </c>
       <c r="R28" t="n">
-        <v>8.441119957103661</v>
+        <v>8.441119957103655</v>
       </c>
       <c r="S28" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124486</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885804</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508682</v>
       </c>
       <c r="H29" t="n">
-        <v>4.286133299251583</v>
+        <v>4.28613329925158</v>
       </c>
       <c r="I29" t="n">
-        <v>16.13486185957737</v>
+        <v>16.13486185957736</v>
       </c>
       <c r="J29" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398428</v>
       </c>
       <c r="K29" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258255</v>
       </c>
       <c r="L29" t="n">
-        <v>66.04506096635123</v>
+        <v>66.0450609663512</v>
       </c>
       <c r="M29" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593769</v>
       </c>
       <c r="N29" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271286</v>
       </c>
       <c r="O29" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688515</v>
       </c>
       <c r="P29" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578558</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.19508627555763</v>
+        <v>45.1950862755576</v>
       </c>
       <c r="R29" t="n">
-        <v>26.28964441441351</v>
+        <v>26.2896444144135</v>
       </c>
       <c r="S29" t="n">
-        <v>9.536947399652924</v>
+        <v>9.53694739965292</v>
       </c>
       <c r="T29" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951427</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.03348132932406945</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.223926131204552</v>
       </c>
       <c r="H30" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001858</v>
       </c>
       <c r="I30" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086549</v>
       </c>
       <c r="J30" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805814</v>
       </c>
       <c r="K30" t="n">
-        <v>36.15915952876314</v>
+        <v>36.15915952876312</v>
       </c>
       <c r="L30" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386556</v>
       </c>
       <c r="M30" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003055</v>
       </c>
       <c r="N30" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411723</v>
       </c>
       <c r="O30" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005847</v>
       </c>
       <c r="P30" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852537</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183018</v>
       </c>
       <c r="R30" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777035</v>
       </c>
       <c r="S30" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909109</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.9025794498990491</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608895</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356252</v>
       </c>
       <c r="H31" t="n">
-        <v>1.669109445622197</v>
+        <v>1.669109445622196</v>
       </c>
       <c r="I31" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067714</v>
       </c>
       <c r="J31" t="n">
-        <v>13.27266273885871</v>
+        <v>13.2726627388587</v>
       </c>
       <c r="K31" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082991</v>
       </c>
       <c r="L31" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761287</v>
       </c>
       <c r="M31" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037169</v>
       </c>
       <c r="N31" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167529</v>
       </c>
       <c r="O31" t="n">
-        <v>26.53508554246822</v>
+        <v>26.5350855424682</v>
       </c>
       <c r="P31" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926143</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342131</v>
       </c>
       <c r="R31" t="n">
-        <v>8.441119957103661</v>
+        <v>8.441119957103655</v>
       </c>
       <c r="S31" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124486</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.8021282611885804</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921593</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4185166165508685</v>
+        <v>0.4185166165508691</v>
       </c>
       <c r="H44" t="n">
-        <v>4.286133299251583</v>
+        <v>4.28613329925159</v>
       </c>
       <c r="I44" t="n">
-        <v>16.13486185957737</v>
+        <v>16.1348618595774</v>
       </c>
       <c r="J44" t="n">
-        <v>35.5210746839843</v>
+        <v>35.52107468398436</v>
       </c>
       <c r="K44" t="n">
-        <v>53.23688306258258</v>
+        <v>53.23688306258266</v>
       </c>
       <c r="L44" t="n">
-        <v>66.04506096635123</v>
+        <v>66.04506096635134</v>
       </c>
       <c r="M44" t="n">
-        <v>73.48785584593773</v>
+        <v>73.48785584593786</v>
       </c>
       <c r="N44" t="n">
-        <v>74.6769661827129</v>
+        <v>74.67696618271302</v>
       </c>
       <c r="O44" t="n">
-        <v>70.51534157688519</v>
+        <v>70.51534157688531</v>
       </c>
       <c r="P44" t="n">
-        <v>60.18321260578562</v>
+        <v>60.18321260578572</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.19508627555763</v>
+        <v>45.1950862755577</v>
       </c>
       <c r="R44" t="n">
-        <v>26.28964441441351</v>
+        <v>26.28964441441356</v>
       </c>
       <c r="S44" t="n">
-        <v>9.536947399652924</v>
+        <v>9.53694739965294</v>
       </c>
       <c r="T44" t="n">
-        <v>1.832056488951428</v>
+        <v>1.832056488951431</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03348132932406947</v>
+        <v>0.03348132932406953</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2239261312045521</v>
+        <v>0.2239261312045525</v>
       </c>
       <c r="H45" t="n">
-        <v>2.162655004001859</v>
+        <v>2.162655004001862</v>
       </c>
       <c r="I45" t="n">
-        <v>7.709737412086554</v>
+        <v>7.709737412086566</v>
       </c>
       <c r="J45" t="n">
-        <v>21.15610873805815</v>
+        <v>21.15610873805818</v>
       </c>
       <c r="K45" t="n">
-        <v>36.15915952876314</v>
+        <v>36.1591595287632</v>
       </c>
       <c r="L45" t="n">
-        <v>48.62045230386558</v>
+        <v>48.62045230386566</v>
       </c>
       <c r="M45" t="n">
-        <v>56.73777456003059</v>
+        <v>56.73777456003068</v>
       </c>
       <c r="N45" t="n">
-        <v>58.23945462411726</v>
+        <v>58.23945462411736</v>
       </c>
       <c r="O45" t="n">
-        <v>53.2777229800585</v>
+        <v>53.27772298005858</v>
       </c>
       <c r="P45" t="n">
-        <v>42.7600697385254</v>
+        <v>42.76006973852547</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.5839742218302</v>
+        <v>28.58397422183025</v>
       </c>
       <c r="R45" t="n">
-        <v>13.90306277777036</v>
+        <v>13.90306277777038</v>
       </c>
       <c r="S45" t="n">
-        <v>4.159329673909112</v>
+        <v>4.159329673909119</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9025794498990496</v>
+        <v>0.902579449899051</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01473198231608896</v>
+        <v>0.01473198231608898</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1877321462356253</v>
+        <v>0.1877321462356256</v>
       </c>
       <c r="H46" t="n">
-        <v>1.669109445622197</v>
+        <v>1.6691094456222</v>
       </c>
       <c r="I46" t="n">
-        <v>5.645617634067716</v>
+        <v>5.645617634067726</v>
       </c>
       <c r="J46" t="n">
-        <v>13.27266273885871</v>
+        <v>13.27266273885873</v>
       </c>
       <c r="K46" t="n">
-        <v>21.81106208082992</v>
+        <v>21.81106208082996</v>
       </c>
       <c r="L46" t="n">
-        <v>27.91065017761288</v>
+        <v>27.91065017761293</v>
       </c>
       <c r="M46" t="n">
-        <v>29.4278672503717</v>
+        <v>29.42786725037175</v>
       </c>
       <c r="N46" t="n">
-        <v>28.7281383416753</v>
+        <v>28.72813834167535</v>
       </c>
       <c r="O46" t="n">
-        <v>26.53508554246822</v>
+        <v>26.53508554246826</v>
       </c>
       <c r="P46" t="n">
-        <v>22.70534975926144</v>
+        <v>22.70534975926148</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.72000726342132</v>
+        <v>15.72000726342134</v>
       </c>
       <c r="R46" t="n">
-        <v>8.441119957103661</v>
+        <v>8.441119957103675</v>
       </c>
       <c r="S46" t="n">
-        <v>3.271659312124488</v>
+        <v>3.271659312124493</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8021282611885808</v>
+        <v>0.802128261188582</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01023993524921594</v>
+        <v>0.01023993524921596</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3.118406129333304</v>
       </c>
       <c r="L11" t="n">
-        <v>98.93990648501779</v>
+        <v>49.05450173165863</v>
       </c>
       <c r="M11" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N11" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="O11" t="n">
-        <v>36.55404110068636</v>
+        <v>36.55404110068632</v>
       </c>
       <c r="P11" t="n">
-        <v>52.17290786099201</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>6.215385544146809</v>
+        <v>6.215385544146823</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>9.267167734103381</v>
+        <v>9.267167734103328</v>
       </c>
       <c r="M12" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N12" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="O12" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="P12" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172176</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35571,22 +35571,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N13" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>57.65424200055741</v>
       </c>
       <c r="P13" t="n">
-        <v>57.65424200055747</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.58199948956219</v>
+        <v>73.58199948956221</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="K14" t="n">
-        <v>60.4185181011997</v>
+        <v>3.118406129333153</v>
       </c>
       <c r="L14" t="n">
-        <v>49.05450173165866</v>
+        <v>49.05450173165863</v>
       </c>
       <c r="M14" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N14" t="n">
-        <v>78.19383561383771</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="O14" t="n">
-        <v>98.93990648501779</v>
+        <v>36.55404110068632</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>6.215385544146894</v>
+        <v>6.215385544146937</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>9.267167734103381</v>
+        <v>9.267167734103328</v>
       </c>
       <c r="M15" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N15" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="O15" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="P15" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172176</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35796,31 +35796,31 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>34.57850973646431</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>80.49039014520217</v>
       </c>
       <c r="K16" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>32.29633500510128</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="O16" t="n">
-        <v>98.93990648501779</v>
+        <v>16.16734160845224</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35884,34 +35884,34 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>49.05450173165863</v>
+      </c>
+      <c r="M17" t="n">
+        <v>83.75022101202045</v>
+      </c>
+      <c r="N17" t="n">
+        <v>78.19383561383766</v>
+      </c>
+      <c r="O17" t="n">
+        <v>36.55404110068632</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>98.93990648501773</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>36.30245476157623</v>
       </c>
-      <c r="L17" t="n">
-        <v>49.05450173165866</v>
-      </c>
-      <c r="M17" t="n">
-        <v>83.75022101202049</v>
-      </c>
-      <c r="N17" t="n">
-        <v>78.19383561383771</v>
-      </c>
-      <c r="O17" t="n">
-        <v>36.55404110068636</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
       <c r="T17" t="n">
-        <v>98.93990648501779</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>9.267167734103328</v>
       </c>
       <c r="L18" t="n">
-        <v>9.267167734103381</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N18" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="O18" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="P18" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172176</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.05450173165866</v>
+        <v>49.05450173165863</v>
       </c>
       <c r="M20" t="n">
-        <v>83.75022101202049</v>
+        <v>83.75022101202045</v>
       </c>
       <c r="N20" t="n">
-        <v>98.93990648501779</v>
+        <v>78.19383561383766</v>
       </c>
       <c r="O20" t="n">
-        <v>36.55404110068636</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,10 +36145,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>98.93990648501779</v>
+        <v>81.82358911834385</v>
       </c>
       <c r="T20" t="n">
-        <v>24.52347714647738</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>9.267167734103381</v>
+        <v>9.267167734103328</v>
       </c>
       <c r="M21" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N21" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="O21" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="P21" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172176</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>61.07751824716382</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.05450173165866</v>
+        <v>49.05450173165863</v>
       </c>
       <c r="M23" t="n">
-        <v>83.75022101202049</v>
+        <v>83.75022101202045</v>
       </c>
       <c r="N23" t="n">
-        <v>98.93990648501779</v>
+        <v>78.19383561383766</v>
       </c>
       <c r="O23" t="n">
-        <v>98.93990648501779</v>
+        <v>36.55404110068632</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>45.26954801765746</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>9.267167734103381</v>
+        <v>9.267167734103328</v>
       </c>
       <c r="M24" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="N24" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="O24" t="n">
-        <v>98.93990648501779</v>
+        <v>98.93990648501773</v>
       </c>
       <c r="P24" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172176</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>261.9152160772722</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6109353576333</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0545499594513</v>
+        <v>291.0545499594504</v>
       </c>
       <c r="O26" t="n">
         <v>249.4147554462999</v>
@@ -36616,7 +36616,7 @@
         <v>124.422972921961</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72024270447852</v>
+        <v>18.72024270447853</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.36607756419615</v>
+        <v>39.36607756419613</v>
       </c>
       <c r="L27" t="n">
         <v>119.8886527290606</v>
@@ -36683,13 +36683,13 @@
         <v>185.1111344851682</v>
       </c>
       <c r="N27" t="n">
-        <v>208.6164244570733</v>
+        <v>208.6164244570732</v>
       </c>
       <c r="O27" t="n">
         <v>134.533087649157</v>
       </c>
       <c r="P27" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172176</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>39.76064624178344</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>72.22016470374527</v>
+        <v>197.1503689549156</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0221521924136</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.66869830054045</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>199.465235025091</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.422972921961</v>
+        <v>124.4229729219609</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72024270447843</v>
+        <v>18.72024270447841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.36607756419615</v>
+        <v>39.36607756419613</v>
       </c>
       <c r="L30" t="n">
         <v>119.8886527290606</v>
@@ -36920,13 +36920,13 @@
         <v>185.1111344851682</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6164244570733</v>
+        <v>208.6164244570732</v>
       </c>
       <c r="O30" t="n">
         <v>134.533087649157</v>
       </c>
       <c r="P30" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172176</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>150.824158546806</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0221521924134</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08685664989382</v>
+        <v>81.88886300428641</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0803921385443</v>
+        <v>137.0803921385444</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6342064794345</v>
+        <v>207.6342064794346</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9152160772721</v>
+        <v>261.9152160772722</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6109353576339</v>
+        <v>296.610935357634</v>
       </c>
       <c r="N32" t="n">
-        <v>291.0545499594512</v>
+        <v>291.0545499594504</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4147554462998</v>
+        <v>249.4147554462999</v>
       </c>
       <c r="P32" t="n">
-        <v>199.465235025091</v>
+        <v>199.4652350250911</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.422972921961</v>
+        <v>124.4229729219611</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72024270447844</v>
+        <v>18.72024270447855</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>81.88886300428638</v>
+        <v>60.78119241477361</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1298227819254</v>
       </c>
       <c r="P34" t="n">
-        <v>155.0221521924135</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>164.7746244838398</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>235.32843882473</v>
+        <v>235.3284388247301</v>
       </c>
       <c r="L35" t="n">
-        <v>250.3789059107288</v>
+        <v>49.05450173165866</v>
       </c>
       <c r="M35" t="n">
-        <v>83.75022101202049</v>
+        <v>135.0390688589139</v>
       </c>
       <c r="N35" t="n">
-        <v>78.19383561383771</v>
+        <v>318.7487823047467</v>
       </c>
       <c r="O35" t="n">
-        <v>277.1089877915953</v>
+        <v>277.1089877915954</v>
       </c>
       <c r="P35" t="n">
-        <v>227.1594673703865</v>
+        <v>227.1594673703866</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>152.1172052672565</v>
       </c>
       <c r="R35" t="n">
-        <v>46.41447504977393</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>13.30678731250288</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>18.14070877987234</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>67.1275810550662</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>61.91845455384279</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.36293064583585</v>
+        <v>37.36293064583591</v>
       </c>
       <c r="S37" t="n">
-        <v>5.20912650122364</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37549,10 +37549,10 @@
         <v>289.6094484225677</v>
       </c>
       <c r="M38" t="n">
-        <v>324.3051677029295</v>
+        <v>293.1549046374143</v>
       </c>
       <c r="N38" t="n">
-        <v>153.6220227518477</v>
+        <v>318.7487823047467</v>
       </c>
       <c r="O38" t="n">
         <v>36.55404110068636</v>
@@ -37561,7 +37561,7 @@
         <v>227.1594673703865</v>
       </c>
       <c r="Q38" t="n">
-        <v>152.1172052672565</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>46.41447504977393</v>
@@ -37570,7 +37570,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>18.14070877987234</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>45.1024552736362</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>104.4905117009023</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37722,13 +37722,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.36293064583585</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.20912650122364</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.81599928020659</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.7746244838398</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>196.0978963128915</v>
+        <v>235.32843882473</v>
       </c>
       <c r="L41" t="n">
-        <v>49.05450173165866</v>
+        <v>289.6094484225677</v>
       </c>
       <c r="M41" t="n">
         <v>324.3051677029295</v>
       </c>
       <c r="N41" t="n">
-        <v>318.7487823047467</v>
+        <v>190.3424382653161</v>
       </c>
       <c r="O41" t="n">
-        <v>36.55404110068636</v>
+        <v>277.1089877915953</v>
       </c>
       <c r="P41" t="n">
-        <v>227.1594673703865</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.4144750497739</v>
+        <v>46.41447504977393</v>
       </c>
       <c r="S41" t="n">
-        <v>13.30678731250286</v>
+        <v>13.30678731250288</v>
       </c>
       <c r="T41" t="n">
-        <v>18.14070877987232</v>
+        <v>18.14070877987234</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>104.4905117009024</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>104.4905117009023</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,31 +38020,31 @@
         <v>235.32843882473</v>
       </c>
       <c r="L44" t="n">
-        <v>289.6094484225676</v>
+        <v>49.05450173165877</v>
       </c>
       <c r="M44" t="n">
-        <v>83.75022101202049</v>
+        <v>324.3051677029295</v>
       </c>
       <c r="N44" t="n">
-        <v>78.19383561383771</v>
+        <v>318.7487823047467</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1089877915953</v>
+        <v>239.9600942148362</v>
       </c>
       <c r="P44" t="n">
         <v>227.1594673703865</v>
       </c>
       <c r="Q44" t="n">
-        <v>125.5440819720014</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.4144750497739</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.30678731250286</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>18.14070877987232</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.36607756419615</v>
+        <v>39.3660775641962</v>
       </c>
       <c r="L45" t="n">
-        <v>119.8886527290606</v>
+        <v>119.8886527290607</v>
       </c>
       <c r="M45" t="n">
-        <v>185.1111344851682</v>
+        <v>185.1111344851683</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6164244570733</v>
+        <v>208.6164244570734</v>
       </c>
       <c r="O45" t="n">
-        <v>134.533087649157</v>
+        <v>134.5330876491572</v>
       </c>
       <c r="P45" t="n">
-        <v>85.67516677172179</v>
+        <v>85.67516677172185</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>45.10245527363637</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>104.4905117009024</v>
       </c>
       <c r="R46" t="n">
-        <v>37.36293064583582</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.209126501223611</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.81599928020657</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
